--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_19_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_19_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-740244.9807268013</v>
+        <v>-740956.0943603188</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2150917.211406941</v>
+        <v>2150917.211406942</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681858</v>
+        <v>590120.9651681856</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239.2980585815354</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>212.1863813447388</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>238.6996843454278</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>204.7639006275751</v>
+        <v>269.8962134915471</v>
       </c>
       <c r="H11" t="n">
         <v>188.1932235828416</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>39.97987658855413</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.13678136468737</v>
+        <v>49.13678136468742</v>
       </c>
       <c r="T11" t="n">
-        <v>76.18203808719865</v>
+        <v>76.18203808719871</v>
       </c>
       <c r="U11" t="n">
         <v>107.0161961264909</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>116.3599667564914</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>226.4432477213098</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>242.2687203413763</v>
       </c>
     </row>
     <row r="12">
@@ -1446,19 +1446,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3721256103448</v>
+        <v>20.95377420048527</v>
       </c>
       <c r="C12" t="n">
-        <v>26.60723251754138</v>
+        <v>26.60723251754143</v>
       </c>
       <c r="D12" t="n">
-        <v>69.65737285346911</v>
+        <v>1.694072164786007</v>
       </c>
       <c r="E12" t="n">
-        <v>11.61508229731422</v>
+        <v>11.61508229731427</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>67.96330068868266</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1503,19 +1503,19 @@
         <v>197.2175270959592</v>
       </c>
       <c r="U12" t="n">
-        <v>80.21981034484472</v>
+        <v>224.6381617547043</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>87.49037962979557</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>105.5709953401405</v>
       </c>
       <c r="X12" t="n">
-        <v>60.04327819861865</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>59.25280000872641</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.66534008082419</v>
+        <v>35.66534008082425</v>
       </c>
       <c r="C13" t="n">
-        <v>22.91820152134272</v>
+        <v>22.91820152134278</v>
       </c>
       <c r="D13" t="n">
-        <v>4.587215104659748</v>
+        <v>4.587215104659805</v>
       </c>
       <c r="E13" t="n">
-        <v>2.556272763339564</v>
+        <v>2.556272763339621</v>
       </c>
       <c r="F13" t="n">
-        <v>1.740669999944885</v>
+        <v>1.740669999944942</v>
       </c>
       <c r="G13" t="n">
-        <v>23.22892217192742</v>
+        <v>23.22892217192747</v>
       </c>
       <c r="H13" t="n">
-        <v>15.06131686580293</v>
+        <v>15.06131686580298</v>
       </c>
       <c r="I13" t="n">
-        <v>2.053112003489615</v>
+        <v>2.053112003489669</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.07741705268779</v>
+        <v>18.07741705268784</v>
       </c>
       <c r="S13" t="n">
-        <v>73.71615989036815</v>
+        <v>73.7161598903682</v>
       </c>
       <c r="T13" t="n">
-        <v>82.87876718427636</v>
+        <v>82.87876718427641</v>
       </c>
       <c r="U13" t="n">
-        <v>141.6207017803871</v>
+        <v>141.6207017803872</v>
       </c>
       <c r="V13" t="n">
-        <v>108.5179996570795</v>
+        <v>108.5179996570796</v>
       </c>
       <c r="W13" t="n">
-        <v>141.6742254775559</v>
+        <v>141.674225477556</v>
       </c>
       <c r="X13" t="n">
-        <v>81.72200852244964</v>
+        <v>81.7220085224497</v>
       </c>
       <c r="Y13" t="n">
-        <v>74.33032245790861</v>
+        <v>74.33032245790866</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>239.2980585815355</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>212.1863813447388</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>128.5237637452736</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>269.8962134915471</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>188.1932235828416</v>
       </c>
       <c r="I14" t="n">
         <v>39.97987658855413</v>
@@ -1664,16 +1664,16 @@
         <v>107.0161961264909</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>103.505155896264</v>
       </c>
       <c r="W14" t="n">
-        <v>206.111765590695</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>226.4432477213098</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>242.2687203413763</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>20.95377420048527</v>
       </c>
       <c r="C15" t="n">
-        <v>26.60723251754143</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
         <v>1.694072164786007</v>
@@ -1695,13 +1695,13 @@
         <v>11.61508229731427</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.7341774550896</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>107.6710676475892</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>76.5521965920988</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>76.74959551402543</v>
       </c>
       <c r="S15" t="n">
-        <v>56.01716774778696</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T15" t="n">
         <v>52.79917568609961</v>
@@ -1743,13 +1743,13 @@
         <v>80.21981034484477</v>
       </c>
       <c r="V15" t="n">
-        <v>87.49037962979557</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>165.5629746588688</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>60.04327819861871</v>
       </c>
       <c r="Y15" t="n">
         <v>59.25280000872647</v>
@@ -1783,7 +1783,7 @@
         <v>15.06131686580298</v>
       </c>
       <c r="I16" t="n">
-        <v>2.053112003489672</v>
+        <v>2.053112003489669</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.07741705268785</v>
+        <v>18.07741705268784</v>
       </c>
       <c r="S16" t="n">
         <v>73.7161598903682</v>
@@ -1859,7 +1859,7 @@
         <v>162.8800173650562</v>
       </c>
       <c r="H17" t="n">
-        <v>81.17702745635071</v>
+        <v>81.17702745635066</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>143.5062320835493</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>76.5521965920988</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1980,16 +1980,16 @@
         <v>224.6381617547043</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>193.1466028124448</v>
+        <v>95.60003721376397</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>83.95732604336315</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>59.47009375416587</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>34.60450565389621</v>
       </c>
       <c r="V19" t="n">
-        <v>144.9292233281175</v>
+        <v>1.50180353058866</v>
       </c>
       <c r="W19" t="n">
         <v>34.65802935106504</v>
@@ -2096,7 +2096,7 @@
         <v>162.8800173650562</v>
       </c>
       <c r="H20" t="n">
-        <v>81.17702745635071</v>
+        <v>81.17702745635066</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2160,25 +2160,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7341774550896</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.6710676475892</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>76.5521965920988</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.6381617547043</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>52.52341320512533</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>40.03187330470261</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>159.4796682756625</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>132.9533180363857</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>162.4957684625474</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.60450565389621</v>
+        <v>164.5417235033971</v>
       </c>
       <c r="V22" t="n">
         <v>1.50180353058866</v>
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>132.2818624550446</v>
+        <v>132.2818624550445</v>
       </c>
       <c r="C23" t="n">
-        <v>115.5505481425922</v>
+        <v>115.5505481425921</v>
       </c>
       <c r="D23" t="n">
         <v>105.1701852182479</v>
@@ -2327,13 +2327,13 @@
         <v>131.683488218937</v>
       </c>
       <c r="F23" t="n">
-        <v>155.8593159441904</v>
+        <v>155.8593159441903</v>
       </c>
       <c r="G23" t="n">
         <v>162.8800173650562</v>
       </c>
       <c r="H23" t="n">
-        <v>81.17702745635074</v>
+        <v>81.17702745635066</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>77.09867398616888</v>
+        <v>77.09867398616885</v>
       </c>
       <c r="W23" t="n">
-        <v>99.09556946420412</v>
+        <v>99.09556946420409</v>
       </c>
       <c r="X23" t="n">
         <v>119.4270515948189</v>
@@ -2457,7 +2457,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>36.89118517421129</v>
+        <v>36.89118517421106</v>
       </c>
       <c r="X24" t="n">
         <v>204.4616296084783</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.9615228986989</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>146.4714634133492</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>218.1345113002278</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.60450565389624</v>
+        <v>108.9029806657168</v>
       </c>
       <c r="V25" t="n">
-        <v>1.501803530588688</v>
+        <v>1.50180353058866</v>
       </c>
       <c r="W25" t="n">
-        <v>34.65802935106507</v>
+        <v>34.65802935106504</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,22 +2558,22 @@
         <v>225.6206056661157</v>
       </c>
       <c r="D26" t="n">
-        <v>215.2402427417715</v>
+        <v>215.2402427417714</v>
       </c>
       <c r="E26" t="n">
         <v>241.7535457424605</v>
       </c>
       <c r="F26" t="n">
-        <v>265.9293734677139</v>
+        <v>265.9293734677138</v>
       </c>
       <c r="G26" t="n">
-        <v>272.9500748885798</v>
+        <v>272.9500748885797</v>
       </c>
       <c r="H26" t="n">
         <v>191.2470849798742</v>
       </c>
       <c r="I26" t="n">
-        <v>43.03373798558675</v>
+        <v>43.03373798558673</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.19064276172004</v>
+        <v>52.19064276172001</v>
       </c>
       <c r="T26" t="n">
-        <v>79.23589948423133</v>
+        <v>79.2358994842313</v>
       </c>
       <c r="U26" t="n">
-        <v>110.0700575235236</v>
+        <v>110.0700575235235</v>
       </c>
       <c r="V26" t="n">
         <v>187.1687315096924</v>
@@ -2618,10 +2618,10 @@
         <v>209.1656269877276</v>
       </c>
       <c r="X26" t="n">
-        <v>229.4971091183425</v>
+        <v>229.4971091183424</v>
       </c>
       <c r="Y26" t="n">
-        <v>245.3225817384089</v>
+        <v>245.3225817384088</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.6710676475892</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,19 +2682,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>22.22846733119528</v>
+        <v>22.22846733119525</v>
       </c>
       <c r="T27" t="n">
-        <v>197.2175270959592</v>
+        <v>55.8530370831322</v>
       </c>
       <c r="U27" t="n">
-        <v>180.472664457262</v>
+        <v>224.6381617547043</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>239.5172718177952</v>
       </c>
       <c r="X27" t="n">
         <v>204.4616296084783</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.71920147785687</v>
+        <v>38.71920147785684</v>
       </c>
       <c r="C28" t="n">
-        <v>25.9720629183754</v>
+        <v>25.97206291837537</v>
       </c>
       <c r="D28" t="n">
-        <v>7.641076501692424</v>
+        <v>7.641076501692396</v>
       </c>
       <c r="E28" t="n">
-        <v>5.61013416037224</v>
+        <v>5.610134160372212</v>
       </c>
       <c r="F28" t="n">
-        <v>4.794531396977561</v>
+        <v>4.794531396977533</v>
       </c>
       <c r="G28" t="n">
-        <v>26.28278356896009</v>
+        <v>26.28278356896006</v>
       </c>
       <c r="H28" t="n">
-        <v>18.1151782628356</v>
+        <v>18.11517826283557</v>
       </c>
       <c r="I28" t="n">
-        <v>5.106973400522292</v>
+        <v>5.106973400522261</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.13127844972047</v>
+        <v>21.13127844972043</v>
       </c>
       <c r="S28" t="n">
-        <v>76.77002128740082</v>
+        <v>76.77002128740079</v>
       </c>
       <c r="T28" t="n">
-        <v>85.93262858130903</v>
+        <v>85.932628581309</v>
       </c>
       <c r="U28" t="n">
-        <v>144.6745631774198</v>
+        <v>144.6745631774197</v>
       </c>
       <c r="V28" t="n">
         <v>111.5718610541122</v>
@@ -2776,10 +2776,10 @@
         <v>144.7280868745886</v>
       </c>
       <c r="X28" t="n">
-        <v>84.77586991948232</v>
+        <v>84.77586991948229</v>
       </c>
       <c r="Y28" t="n">
-        <v>77.38418385494128</v>
+        <v>77.38418385494126</v>
       </c>
     </row>
     <row r="29">
@@ -2801,16 +2801,16 @@
         <v>241.7535457424605</v>
       </c>
       <c r="F29" t="n">
-        <v>265.929373467714</v>
+        <v>265.9293734677139</v>
       </c>
       <c r="G29" t="n">
         <v>272.9500748885798</v>
       </c>
       <c r="H29" t="n">
-        <v>191.2470849798743</v>
+        <v>191.2470849798742</v>
       </c>
       <c r="I29" t="n">
-        <v>43.03373798558678</v>
+        <v>43.03373798558674</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.19064276172007</v>
+        <v>52.19064276172004</v>
       </c>
       <c r="T29" t="n">
-        <v>79.23589948423135</v>
+        <v>79.23589948423134</v>
       </c>
       <c r="U29" t="n">
         <v>110.0700575235236</v>
@@ -2852,7 +2852,7 @@
         <v>187.1687315096924</v>
       </c>
       <c r="W29" t="n">
-        <v>209.1656269877277</v>
+        <v>209.1656269877276</v>
       </c>
       <c r="X29" t="n">
         <v>229.4971091183425</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>22.2284673311953</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T30" t="n">
-        <v>55.85303708313226</v>
+        <v>55.85303708313223</v>
       </c>
       <c r="U30" t="n">
-        <v>143.2442027881384</v>
+        <v>83.27367174187739</v>
       </c>
       <c r="V30" t="n">
-        <v>90.54424102682822</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>108.6248567371731</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>203.671151418586</v>
+        <v>122.2771924520203</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.7192014778569</v>
+        <v>38.71920147785687</v>
       </c>
       <c r="C31" t="n">
-        <v>25.97206291837543</v>
+        <v>25.9720629183754</v>
       </c>
       <c r="D31" t="n">
-        <v>7.641076501692453</v>
+        <v>7.641076501692424</v>
       </c>
       <c r="E31" t="n">
-        <v>5.610134160372269</v>
+        <v>5.61013416037224</v>
       </c>
       <c r="F31" t="n">
-        <v>4.79453139697759</v>
+        <v>4.794531396977561</v>
       </c>
       <c r="G31" t="n">
-        <v>26.28278356896012</v>
+        <v>26.28278356896009</v>
       </c>
       <c r="H31" t="n">
-        <v>18.11517826283563</v>
+        <v>18.1151782628356</v>
       </c>
       <c r="I31" t="n">
-        <v>5.10697340052232</v>
+        <v>5.106973400522289</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.1312784497205</v>
+        <v>21.13127844972046</v>
       </c>
       <c r="S31" t="n">
-        <v>76.77002128740085</v>
+        <v>76.77002128740082</v>
       </c>
       <c r="T31" t="n">
-        <v>85.93262858130906</v>
+        <v>85.93262858130903</v>
       </c>
       <c r="U31" t="n">
         <v>144.6745631774198</v>
@@ -3013,10 +3013,10 @@
         <v>144.7280868745886</v>
       </c>
       <c r="X31" t="n">
-        <v>84.77586991948235</v>
+        <v>84.77586991948232</v>
       </c>
       <c r="Y31" t="n">
-        <v>77.38418385494131</v>
+        <v>77.38418385494128</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.19064276172004</v>
+        <v>52.19064276172003</v>
       </c>
       <c r="T32" t="n">
-        <v>79.23589948423133</v>
+        <v>79.23589948423134</v>
       </c>
       <c r="U32" t="n">
         <v>110.0700575235236</v>
@@ -3111,7 +3111,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>4.747933561818627</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
         <v>156.0334337071738</v>
@@ -3120,7 +3120,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.7341774550896</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>76.74959551402544</v>
+        <v>76.74959551402543</v>
       </c>
       <c r="S33" t="n">
         <v>163.5929573440222</v>
@@ -3162,7 +3162,7 @@
         <v>197.2175270959592</v>
       </c>
       <c r="U33" t="n">
-        <v>103.7230689432361</v>
+        <v>109.3533815009737</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3171,10 +3171,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>63.09713959565133</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.671151418586</v>
+        <v>62.30666140575909</v>
       </c>
     </row>
     <row r="34">
@@ -3205,7 +3205,7 @@
         <v>18.1151782628356</v>
       </c>
       <c r="I34" t="n">
-        <v>5.106973400522292</v>
+        <v>5.106973400522289</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.13127844972047</v>
+        <v>21.13127844972046</v>
       </c>
       <c r="S34" t="n">
         <v>76.77002128740082</v>
@@ -3402,7 +3402,7 @@
         <v>2.712683896489351</v>
       </c>
       <c r="V36" t="n">
-        <v>226.7004896214537</v>
+        <v>226.7004896214539</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
@@ -3490,7 +3490,7 @@
         <v>4.214882074094277</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3192544676265</v>
+        <v>194.3192544676266</v>
       </c>
     </row>
     <row r="38">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>171.025583927401</v>
@@ -3591,7 +3591,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>138.2979906653477</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.5521965920988</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U39" t="n">
         <v>2.712683896489351</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>118.3028915437408</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.3192544676266</v>
       </c>
       <c r="T40" t="n">
         <v>5.371640735920991</v>
@@ -3727,7 +3727,7 @@
         <v>4.214882074094277</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3192544676265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>163.1160204943369</v>
+        <v>163.1160204943368</v>
       </c>
       <c r="C41" t="n">
         <v>146.3847061818844</v>
       </c>
       <c r="D41" t="n">
-        <v>136.0043432575402</v>
+        <v>136.0043432575401</v>
       </c>
       <c r="E41" t="n">
-        <v>162.5176462582293</v>
+        <v>162.5176462582292</v>
       </c>
       <c r="F41" t="n">
         <v>186.6934739834826</v>
@@ -3755,7 +3755,7 @@
         <v>193.7141754043485</v>
       </c>
       <c r="H41" t="n">
-        <v>112.011185495643</v>
+        <v>112.0111854956429</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.83415803929229</v>
+        <v>30.83415803929225</v>
       </c>
       <c r="V41" t="n">
-        <v>107.9328320254612</v>
+        <v>107.9328320254611</v>
       </c>
       <c r="W41" t="n">
-        <v>129.9297275034964</v>
+        <v>129.9297275034963</v>
       </c>
       <c r="X41" t="n">
-        <v>150.2612096341112</v>
+        <v>150.2612096341111</v>
       </c>
       <c r="Y41" t="n">
         <v>166.0866822541776</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
         <v>171.025583927401</v>
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>76.74959551402544</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>163.5929573440222</v>
       </c>
       <c r="T42" t="n">
-        <v>138.068454725406</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>4.037772257646139</v>
+        <v>4.037772257646082</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>77.68350425015541</v>
       </c>
       <c r="W42" t="n">
         <v>249.98934675</v>
@@ -3885,7 +3885,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>187.6938126618425</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.696729097077778</v>
+        <v>6.696729097077721</v>
       </c>
       <c r="U43" t="n">
-        <v>65.43866369318852</v>
+        <v>65.43866369318846</v>
       </c>
       <c r="V43" t="n">
-        <v>32.33596156988096</v>
+        <v>32.33596156988091</v>
       </c>
       <c r="W43" t="n">
-        <v>65.49218739035734</v>
+        <v>65.49218739035729</v>
       </c>
       <c r="X43" t="n">
-        <v>5.539970435251064</v>
+        <v>5.539970435251007</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>187.6938126618429</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.83415803929222</v>
+        <v>30.83415803929221</v>
       </c>
       <c r="V44" t="n">
         <v>107.9328320254611</v>
@@ -4059,16 +4059,16 @@
         <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.7341774550896</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>13.40550281216854</v>
+        <v>179.8171826388984</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>187.693812661843</v>
       </c>
       <c r="T46" t="n">
         <v>6.696729097077693</v>
@@ -4198,7 +4198,7 @@
         <v>65.49218739035726</v>
       </c>
       <c r="X46" t="n">
-        <v>193.2337830970939</v>
+        <v>5.539970435250979</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>879.4844891607729</v>
+        <v>530.2179475065903</v>
       </c>
       <c r="C11" t="n">
-        <v>879.4844891607729</v>
+        <v>530.2179475065903</v>
       </c>
       <c r="D11" t="n">
-        <v>665.1548110347741</v>
+        <v>530.2179475065903</v>
       </c>
       <c r="E11" t="n">
-        <v>424.0440187666651</v>
+        <v>530.2179475065903</v>
       </c>
       <c r="F11" t="n">
-        <v>424.0440187666651</v>
+        <v>530.2179475065903</v>
       </c>
       <c r="G11" t="n">
-        <v>217.2117959105284</v>
+        <v>257.5955096363407</v>
       </c>
       <c r="H11" t="n">
-        <v>27.1176306753349</v>
+        <v>67.50134440114715</v>
       </c>
       <c r="I11" t="n">
-        <v>27.1176306753349</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="J11" t="n">
-        <v>71.85530028082076</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="K11" t="n">
-        <v>71.85530028082076</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="L11" t="n">
-        <v>358.7009686106337</v>
+        <v>313.9632990051479</v>
       </c>
       <c r="M11" t="n">
-        <v>693.0843377288155</v>
+        <v>648.3466681233297</v>
       </c>
       <c r="N11" t="n">
-        <v>1017.361204354109</v>
+        <v>972.6235347486233</v>
       </c>
       <c r="O11" t="n">
-        <v>1109.079372093691</v>
+        <v>1232.700633130766</v>
       </c>
       <c r="P11" t="n">
-        <v>1294.110365298516</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="Q11" t="n">
         <v>1355.881533766745</v>
@@ -5066,10 +5066,10 @@
         <v>1355.881533766745</v>
       </c>
       <c r="S11" t="n">
-        <v>1306.248421277162</v>
+        <v>1306.248421277161</v>
       </c>
       <c r="T11" t="n">
-        <v>1229.296867653729</v>
+        <v>1229.296867653728</v>
       </c>
       <c r="U11" t="n">
         <v>1121.199699849192</v>
@@ -5078,13 +5078,13 @@
         <v>1121.199699849192</v>
       </c>
       <c r="W11" t="n">
-        <v>1121.199699849192</v>
+        <v>1003.664379893142</v>
       </c>
       <c r="X11" t="n">
-        <v>1121.199699849192</v>
+        <v>774.9338266392937</v>
       </c>
       <c r="Y11" t="n">
-        <v>1121.199699849192</v>
+        <v>530.2179475065903</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>136.0870121584912</v>
+        <v>136.0870121584908</v>
       </c>
       <c r="C12" t="n">
-        <v>109.2110197165302</v>
+        <v>109.2110197165298</v>
       </c>
       <c r="D12" t="n">
-        <v>38.85003703625836</v>
+        <v>107.4998357116954</v>
       </c>
       <c r="E12" t="n">
-        <v>27.1176306753349</v>
+        <v>95.76742935077193</v>
       </c>
       <c r="F12" t="n">
-        <v>27.1176306753349</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="G12" t="n">
-        <v>27.1176306753349</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="H12" t="n">
-        <v>27.1176306753349</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="I12" t="n">
-        <v>27.1176306753349</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="J12" t="n">
-        <v>27.1176306753349</v>
+        <v>61.54512539052448</v>
       </c>
       <c r="K12" t="n">
-        <v>27.1176306753349</v>
+        <v>246.9928106217454</v>
       </c>
       <c r="L12" t="n">
-        <v>313.8050548945679</v>
+        <v>557.1997160441298</v>
       </c>
       <c r="M12" t="n">
-        <v>313.8050548945679</v>
+        <v>892.7803956513991</v>
       </c>
       <c r="N12" t="n">
-        <v>649.3857345018373</v>
+        <v>1228.361075258668</v>
       </c>
       <c r="O12" t="n">
-        <v>984.9664141091066</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="P12" t="n">
-        <v>1238.177536526419</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="Q12" t="n">
         <v>1355.881533766745</v>
@@ -5145,25 +5145,25 @@
         <v>1355.881533766745</v>
       </c>
       <c r="S12" t="n">
-        <v>1190.636122308137</v>
+        <v>1190.636122308136</v>
       </c>
       <c r="T12" t="n">
-        <v>991.426498978885</v>
+        <v>991.4264989788848</v>
       </c>
       <c r="U12" t="n">
-        <v>910.3963875194459</v>
+        <v>764.5192648832237</v>
       </c>
       <c r="V12" t="n">
-        <v>676.1451440450467</v>
+        <v>676.1451440450464</v>
       </c>
       <c r="W12" t="n">
-        <v>423.63065237838</v>
+        <v>569.5077750146015</v>
       </c>
       <c r="X12" t="n">
-        <v>362.9808764201793</v>
+        <v>362.980876420179</v>
       </c>
       <c r="Y12" t="n">
-        <v>303.1295632800516</v>
+        <v>157.2524406438295</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.99208565564489</v>
+        <v>99.99208565564528</v>
       </c>
       <c r="C13" t="n">
-        <v>76.84238714923809</v>
+        <v>76.84238714923843</v>
       </c>
       <c r="D13" t="n">
-        <v>72.20883653847066</v>
+        <v>72.20883653847095</v>
       </c>
       <c r="E13" t="n">
-        <v>69.62674283812767</v>
+        <v>69.6267428381279</v>
       </c>
       <c r="F13" t="n">
-        <v>67.86849031293082</v>
+        <v>67.86849031293099</v>
       </c>
       <c r="G13" t="n">
-        <v>44.40493256350918</v>
+        <v>44.40493256350929</v>
       </c>
       <c r="H13" t="n">
-        <v>29.19148118391027</v>
+        <v>29.19148118391032</v>
       </c>
       <c r="I13" t="n">
-        <v>27.1176306753349</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="J13" t="n">
-        <v>99.10172026762896</v>
+        <v>99.10172026762891</v>
       </c>
       <c r="K13" t="n">
-        <v>142.1849935140137</v>
+        <v>142.1849935140147</v>
       </c>
       <c r="L13" t="n">
-        <v>214.9369392987128</v>
+        <v>357.9111071944747</v>
       </c>
       <c r="M13" t="n">
-        <v>302.2365651755487</v>
+        <v>588.1849009670716</v>
       </c>
       <c r="N13" t="n">
-        <v>535.5758308638931</v>
+        <v>678.549998759655</v>
       </c>
       <c r="O13" t="n">
-        <v>746.6801960305845</v>
+        <v>746.6801960305854</v>
       </c>
       <c r="P13" t="n">
-        <v>781.7548682568489</v>
+        <v>781.7548682568498</v>
       </c>
       <c r="Q13" t="n">
-        <v>865.8536433359857</v>
+        <v>865.8536433359866</v>
       </c>
       <c r="R13" t="n">
-        <v>847.5936261110485</v>
+        <v>847.5936261110494</v>
       </c>
       <c r="S13" t="n">
-        <v>773.13285854502</v>
+        <v>773.1328585450209</v>
       </c>
       <c r="T13" t="n">
-        <v>689.416932096256</v>
+        <v>689.4169320962568</v>
       </c>
       <c r="U13" t="n">
-        <v>546.3657181766731</v>
+        <v>546.3657181766738</v>
       </c>
       <c r="V13" t="n">
-        <v>436.751577108916</v>
+        <v>436.7515771089166</v>
       </c>
       <c r="W13" t="n">
-        <v>293.6462988487585</v>
+        <v>293.646298848759</v>
       </c>
       <c r="X13" t="n">
-        <v>211.0988154927487</v>
+        <v>211.0988154927493</v>
       </c>
       <c r="Y13" t="n">
-        <v>136.0176816968815</v>
+        <v>136.0176816968819</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>684.2754439784803</v>
+        <v>530.2179475065903</v>
       </c>
       <c r="C14" t="n">
-        <v>684.2754439784803</v>
+        <v>530.2179475065903</v>
       </c>
       <c r="D14" t="n">
-        <v>469.9457658524815</v>
+        <v>530.2179475065903</v>
       </c>
       <c r="E14" t="n">
-        <v>469.9457658524815</v>
+        <v>530.2179475065903</v>
       </c>
       <c r="F14" t="n">
-        <v>340.1237822713969</v>
+        <v>530.2179475065903</v>
       </c>
       <c r="G14" t="n">
-        <v>67.50134440114718</v>
+        <v>257.5955096363407</v>
       </c>
       <c r="H14" t="n">
-        <v>67.50134440114718</v>
+        <v>67.50134440114715</v>
       </c>
       <c r="I14" t="n">
-        <v>27.1176306753349</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="J14" t="n">
         <v>71.85530028082076</v>
@@ -5282,19 +5282,19 @@
         <v>261.1820627065689</v>
       </c>
       <c r="L14" t="n">
-        <v>548.0277310363817</v>
+        <v>548.0277310363819</v>
       </c>
       <c r="M14" t="n">
-        <v>548.0277310363817</v>
+        <v>882.4111001545637</v>
       </c>
       <c r="N14" t="n">
-        <v>872.3045976616754</v>
+        <v>1206.687966779857</v>
       </c>
       <c r="O14" t="n">
-        <v>1132.381696043818</v>
+        <v>1294.110365298516</v>
       </c>
       <c r="P14" t="n">
-        <v>1317.412689248643</v>
+        <v>1294.110365298516</v>
       </c>
       <c r="Q14" t="n">
         <v>1355.881533766745</v>
@@ -5303,25 +5303,25 @@
         <v>1355.881533766745</v>
       </c>
       <c r="S14" t="n">
-        <v>1306.248421277162</v>
+        <v>1306.248421277161</v>
       </c>
       <c r="T14" t="n">
-        <v>1229.296867653729</v>
+        <v>1229.296867653728</v>
       </c>
       <c r="U14" t="n">
         <v>1121.199699849192</v>
       </c>
       <c r="V14" t="n">
-        <v>1121.199699849192</v>
+        <v>1016.649037327713</v>
       </c>
       <c r="W14" t="n">
-        <v>913.0059972323286</v>
+        <v>1016.649037327713</v>
       </c>
       <c r="X14" t="n">
-        <v>684.2754439784803</v>
+        <v>1016.649037327713</v>
       </c>
       <c r="Y14" t="n">
-        <v>684.2754439784803</v>
+        <v>771.93315819501</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>390.6265485282837</v>
+        <v>435.5955772057889</v>
       </c>
       <c r="C15" t="n">
-        <v>363.7505560863227</v>
+        <v>262.842462127606</v>
       </c>
       <c r="D15" t="n">
-        <v>362.0393720814883</v>
+        <v>261.1312781227717</v>
       </c>
       <c r="E15" t="n">
-        <v>350.3069657205648</v>
+        <v>249.3988717618481</v>
       </c>
       <c r="F15" t="n">
-        <v>350.3069657205648</v>
+        <v>104.443081778465</v>
       </c>
       <c r="G15" t="n">
-        <v>213.201735967949</v>
+        <v>104.443081778465</v>
       </c>
       <c r="H15" t="n">
         <v>104.443081778465</v>
       </c>
       <c r="I15" t="n">
-        <v>27.1176306753349</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="J15" t="n">
-        <v>61.54512539052448</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="K15" t="n">
-        <v>61.54512539052448</v>
+        <v>212.5653159065558</v>
       </c>
       <c r="L15" t="n">
-        <v>231.4354977046114</v>
+        <v>522.7722213289402</v>
       </c>
       <c r="M15" t="n">
-        <v>567.0161773118807</v>
+        <v>858.3529009362095</v>
       </c>
       <c r="N15" t="n">
-        <v>902.59685691915</v>
+        <v>1193.933580543479</v>
       </c>
       <c r="O15" t="n">
-        <v>1238.177536526419</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="P15" t="n">
-        <v>1238.177536526419</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="Q15" t="n">
         <v>1355.881533766745</v>
       </c>
       <c r="R15" t="n">
-        <v>1355.881533766745</v>
+        <v>1278.356689813184</v>
       </c>
       <c r="S15" t="n">
-        <v>1299.298536041708</v>
+        <v>1113.111278354575</v>
       </c>
       <c r="T15" t="n">
-        <v>1245.966035348678</v>
+        <v>1059.778777661546</v>
       </c>
       <c r="U15" t="n">
-        <v>1164.935923889238</v>
+        <v>978.7486662021064</v>
       </c>
       <c r="V15" t="n">
-        <v>1076.561803051061</v>
+        <v>744.4974227277073</v>
       </c>
       <c r="W15" t="n">
-        <v>824.0473113843944</v>
+        <v>577.262094789456</v>
       </c>
       <c r="X15" t="n">
-        <v>617.5204127899719</v>
+        <v>516.6123188312553</v>
       </c>
       <c r="Y15" t="n">
-        <v>557.6690996498442</v>
+        <v>456.7610056911275</v>
       </c>
     </row>
     <row r="16">
@@ -5425,28 +5425,28 @@
         <v>67.86849031293099</v>
       </c>
       <c r="G16" t="n">
-        <v>44.4049325635093</v>
+        <v>44.40493256350929</v>
       </c>
       <c r="H16" t="n">
-        <v>29.19148118391033</v>
+        <v>29.19148118391032</v>
       </c>
       <c r="I16" t="n">
-        <v>27.1176306753349</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="J16" t="n">
         <v>99.10172026762891</v>
       </c>
       <c r="K16" t="n">
-        <v>142.1849935140147</v>
+        <v>112.3461660108593</v>
       </c>
       <c r="L16" t="n">
-        <v>214.9369392987138</v>
+        <v>328.0722796913194</v>
       </c>
       <c r="M16" t="n">
         <v>445.2107330713106</v>
       </c>
       <c r="N16" t="n">
-        <v>678.549998759655</v>
+        <v>535.575830863894</v>
       </c>
       <c r="O16" t="n">
         <v>746.6801960305854</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>787.0374108221778</v>
+        <v>787.0374108221779</v>
       </c>
       <c r="C17" t="n">
-        <v>670.31968542562</v>
+        <v>670.3196854256202</v>
       </c>
       <c r="D17" t="n">
-        <v>564.0871751041575</v>
+        <v>564.0871751041576</v>
       </c>
       <c r="E17" t="n">
-        <v>431.0735506405848</v>
+        <v>431.0735506405849</v>
       </c>
       <c r="F17" t="n">
-        <v>273.6398981717057</v>
+        <v>273.6398981717058</v>
       </c>
       <c r="G17" t="n">
-        <v>109.1146281059922</v>
+        <v>109.1146281059921</v>
       </c>
       <c r="H17" t="n">
         <v>27.1176306753349</v>
@@ -5516,22 +5516,22 @@
         <v>27.1176306753349</v>
       </c>
       <c r="K17" t="n">
-        <v>27.1176306753349</v>
+        <v>190.3420379680725</v>
       </c>
       <c r="L17" t="n">
-        <v>252.1132064363015</v>
+        <v>190.3420379680725</v>
       </c>
       <c r="M17" t="n">
-        <v>586.4965755544833</v>
+        <v>524.7254070862543</v>
       </c>
       <c r="N17" t="n">
-        <v>910.773442179777</v>
+        <v>849.002273711548</v>
       </c>
       <c r="O17" t="n">
-        <v>1170.85054056192</v>
+        <v>1109.079372093691</v>
       </c>
       <c r="P17" t="n">
-        <v>1355.881533766745</v>
+        <v>1294.110365298516</v>
       </c>
       <c r="Q17" t="n">
         <v>1355.881533766745</v>
@@ -5558,7 +5558,7 @@
         <v>1057.274165034228</v>
       </c>
       <c r="Y17" t="n">
-        <v>920.6554537060611</v>
+        <v>920.6554537060612</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>727.3498224782325</v>
+        <v>172.073420658718</v>
       </c>
       <c r="C18" t="n">
-        <v>554.5967074000496</v>
+        <v>172.073420658718</v>
       </c>
       <c r="D18" t="n">
-        <v>407.0084007589934</v>
+        <v>172.073420658718</v>
       </c>
       <c r="E18" t="n">
-        <v>249.3988717618481</v>
+        <v>172.073420658718</v>
       </c>
       <c r="F18" t="n">
-        <v>104.443081778465</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="G18" t="n">
-        <v>104.443081778465</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="H18" t="n">
-        <v>104.443081778465</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="I18" t="n">
         <v>27.1176306753349</v>
@@ -5595,22 +5595,22 @@
         <v>27.1176306753349</v>
       </c>
       <c r="K18" t="n">
-        <v>27.1176306753349</v>
+        <v>212.5653159065558</v>
       </c>
       <c r="L18" t="n">
-        <v>95.92837252762422</v>
+        <v>522.7722213289402</v>
       </c>
       <c r="M18" t="n">
-        <v>431.5090521348936</v>
+        <v>858.3529009362096</v>
       </c>
       <c r="N18" t="n">
-        <v>767.0897317421629</v>
+        <v>1193.933580543479</v>
       </c>
       <c r="O18" t="n">
-        <v>1102.670411349432</v>
+        <v>1193.933580543479</v>
       </c>
       <c r="P18" t="n">
-        <v>1355.881533766745</v>
+        <v>1238.177536526419</v>
       </c>
       <c r="Q18" t="n">
         <v>1355.881533766745</v>
@@ -5628,16 +5628,16 @@
         <v>1128.974299671084</v>
       </c>
       <c r="V18" t="n">
-        <v>1128.974299671084</v>
+        <v>894.7230561966849</v>
       </c>
       <c r="W18" t="n">
-        <v>1128.974299671084</v>
+        <v>642.2085645300182</v>
       </c>
       <c r="X18" t="n">
-        <v>922.4474010766615</v>
+        <v>435.6816659355957</v>
       </c>
       <c r="Y18" t="n">
-        <v>727.3498224782325</v>
+        <v>339.1159717802785</v>
       </c>
     </row>
     <row r="19">
@@ -5674,7 +5674,7 @@
         <v>27.1176306753349</v>
       </c>
       <c r="K19" t="n">
-        <v>40.36207641856532</v>
+        <v>40.36207641856533</v>
       </c>
       <c r="L19" t="n">
         <v>113.1140222032644</v>
@@ -5689,34 +5689,34 @@
         <v>358.9089431436141</v>
       </c>
       <c r="P19" t="n">
-        <v>393.9836153698785</v>
+        <v>393.9836153698786</v>
       </c>
       <c r="Q19" t="n">
-        <v>393.9836153698785</v>
+        <v>333.9128135979939</v>
       </c>
       <c r="R19" t="n">
-        <v>393.9836153698785</v>
+        <v>333.9128135979939</v>
       </c>
       <c r="S19" t="n">
-        <v>393.9836153698785</v>
+        <v>333.9128135979939</v>
       </c>
       <c r="T19" t="n">
-        <v>393.9836153698785</v>
+        <v>333.9128135979939</v>
       </c>
       <c r="U19" t="n">
-        <v>359.0295692548318</v>
+        <v>298.9587674829472</v>
       </c>
       <c r="V19" t="n">
-        <v>212.6364143779454</v>
+        <v>297.4417942197264</v>
       </c>
       <c r="W19" t="n">
-        <v>177.6283039223242</v>
+        <v>262.4336837641051</v>
       </c>
       <c r="X19" t="n">
-        <v>177.6283039223242</v>
+        <v>262.4336837641051</v>
       </c>
       <c r="Y19" t="n">
-        <v>177.6283039223242</v>
+        <v>262.4336837641051</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>787.0374108221775</v>
+        <v>787.0374108221779</v>
       </c>
       <c r="C20" t="n">
-        <v>670.3196854256198</v>
+        <v>670.3196854256202</v>
       </c>
       <c r="D20" t="n">
-        <v>564.0871751041573</v>
+        <v>564.0871751041577</v>
       </c>
       <c r="E20" t="n">
-        <v>431.0735506405846</v>
+        <v>431.0735506405849</v>
       </c>
       <c r="F20" t="n">
-        <v>273.6398981717055</v>
+        <v>273.6398981717059</v>
       </c>
       <c r="G20" t="n">
-        <v>109.1146281059922</v>
+        <v>109.1146281059921</v>
       </c>
       <c r="H20" t="n">
         <v>27.1176306753349</v>
@@ -5750,19 +5750,19 @@
         <v>27.1176306753349</v>
       </c>
       <c r="J20" t="n">
-        <v>71.85530028082076</v>
+        <v>48.55297633069324</v>
       </c>
       <c r="K20" t="n">
-        <v>261.1820627065689</v>
+        <v>237.8797387564414</v>
       </c>
       <c r="L20" t="n">
-        <v>548.0277310363817</v>
+        <v>524.7254070862543</v>
       </c>
       <c r="M20" t="n">
-        <v>882.4111001545637</v>
+        <v>524.7254070862543</v>
       </c>
       <c r="N20" t="n">
-        <v>1109.079372093691</v>
+        <v>849.002273711548</v>
       </c>
       <c r="O20" t="n">
         <v>1109.079372093691</v>
@@ -5786,7 +5786,7 @@
         <v>1355.881533766745</v>
       </c>
       <c r="V20" t="n">
-        <v>1278.004085295867</v>
+        <v>1278.004085295868</v>
       </c>
       <c r="W20" t="n">
         <v>1177.90755048354</v>
@@ -5795,7 +5795,7 @@
         <v>1057.274165034228</v>
       </c>
       <c r="Y20" t="n">
-        <v>920.6554537060609</v>
+        <v>920.6554537060613</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>895.888255317202</v>
+        <v>104.443081778465</v>
       </c>
       <c r="C21" t="n">
-        <v>723.1351402390192</v>
+        <v>104.443081778465</v>
       </c>
       <c r="D21" t="n">
-        <v>575.5468335979631</v>
+        <v>104.443081778465</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9373046008178</v>
+        <v>104.443081778465</v>
       </c>
       <c r="F21" t="n">
-        <v>272.9815146174347</v>
+        <v>104.443081778465</v>
       </c>
       <c r="G21" t="n">
-        <v>135.876284864819</v>
+        <v>104.443081778465</v>
       </c>
       <c r="H21" t="n">
-        <v>27.1176306753349</v>
+        <v>104.443081778465</v>
       </c>
       <c r="I21" t="n">
         <v>27.1176306753349</v>
       </c>
       <c r="J21" t="n">
-        <v>61.54512539052448</v>
+        <v>61.54512539052449</v>
       </c>
       <c r="K21" t="n">
-        <v>61.54512539052448</v>
+        <v>246.9928106217454</v>
       </c>
       <c r="L21" t="n">
-        <v>371.7520308129087</v>
+        <v>246.9928106217454</v>
       </c>
       <c r="M21" t="n">
-        <v>684.7201745522063</v>
+        <v>313.8050548945677</v>
       </c>
       <c r="N21" t="n">
-        <v>1020.300854159476</v>
+        <v>649.3857345018371</v>
       </c>
       <c r="O21" t="n">
-        <v>1355.881533766745</v>
+        <v>984.9664141091065</v>
       </c>
       <c r="P21" t="n">
-        <v>1355.881533766745</v>
+        <v>1238.177536526419</v>
       </c>
       <c r="Q21" t="n">
         <v>1355.881533766745</v>
@@ -5856,25 +5856,25 @@
         <v>1355.881533766745</v>
       </c>
       <c r="S21" t="n">
-        <v>1355.881533766745</v>
+        <v>1190.636122308137</v>
       </c>
       <c r="T21" t="n">
-        <v>1355.881533766745</v>
+        <v>991.426498978885</v>
       </c>
       <c r="U21" t="n">
-        <v>1355.881533766745</v>
+        <v>764.519264883224</v>
       </c>
       <c r="V21" t="n">
-        <v>1355.881533766745</v>
+        <v>530.2680214088248</v>
       </c>
       <c r="W21" t="n">
-        <v>1103.367042100078</v>
+        <v>477.2140686763749</v>
       </c>
       <c r="X21" t="n">
-        <v>1103.367042100078</v>
+        <v>477.2140686763749</v>
       </c>
       <c r="Y21" t="n">
-        <v>1062.930806438762</v>
+        <v>271.4856329000255</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>322.5044855359897</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="C22" t="n">
-        <v>322.5044855359897</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="D22" t="n">
-        <v>322.5044855359897</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="E22" t="n">
-        <v>322.5044855359897</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="F22" t="n">
-        <v>322.5044855359897</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="G22" t="n">
-        <v>322.5044855359897</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="H22" t="n">
-        <v>161.413911520169</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="I22" t="n">
         <v>27.1176306753349</v>
@@ -5911,7 +5911,7 @@
         <v>27.1176306753349</v>
       </c>
       <c r="K22" t="n">
-        <v>40.36207641856532</v>
+        <v>40.36207641856533</v>
       </c>
       <c r="L22" t="n">
         <v>113.1140222032644</v>
@@ -5926,34 +5926,34 @@
         <v>358.9089431436141</v>
       </c>
       <c r="P22" t="n">
-        <v>393.9836153698785</v>
+        <v>393.9836153698786</v>
       </c>
       <c r="Q22" t="n">
-        <v>393.9836153698785</v>
+        <v>393.9836153698786</v>
       </c>
       <c r="R22" t="n">
-        <v>393.9836153698785</v>
+        <v>229.8464755087196</v>
       </c>
       <c r="S22" t="n">
-        <v>393.9836153698785</v>
+        <v>229.8464755087196</v>
       </c>
       <c r="T22" t="n">
-        <v>393.9836153698785</v>
+        <v>229.8464755087196</v>
       </c>
       <c r="U22" t="n">
-        <v>359.0295692548318</v>
+        <v>63.64271439417703</v>
       </c>
       <c r="V22" t="n">
-        <v>357.512595991611</v>
+        <v>62.12574113095616</v>
       </c>
       <c r="W22" t="n">
-        <v>322.5044855359897</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="X22" t="n">
-        <v>322.5044855359897</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="Y22" t="n">
-        <v>322.5044855359897</v>
+        <v>27.1176306753349</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>787.0374108221775</v>
+        <v>787.0374108221777</v>
       </c>
       <c r="C23" t="n">
-        <v>670.3196854256198</v>
+        <v>670.31968542562</v>
       </c>
       <c r="D23" t="n">
-        <v>564.0871751041573</v>
+        <v>564.0871751041575</v>
       </c>
       <c r="E23" t="n">
-        <v>431.0735506405845</v>
+        <v>431.0735506405847</v>
       </c>
       <c r="F23" t="n">
-        <v>273.6398981717053</v>
+        <v>273.6398981717055</v>
       </c>
       <c r="G23" t="n">
-        <v>109.1146281059922</v>
+        <v>109.1146281059921</v>
       </c>
       <c r="H23" t="n">
-        <v>27.1176306753349</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="I23" t="n">
-        <v>27.1176306753349</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="J23" t="n">
-        <v>27.1176306753349</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="K23" t="n">
-        <v>27.1176306753349</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="L23" t="n">
-        <v>313.9632990051478</v>
+        <v>313.9632990051479</v>
       </c>
       <c r="M23" t="n">
-        <v>524.7254070862546</v>
+        <v>524.7254070862541</v>
       </c>
       <c r="N23" t="n">
-        <v>849.0022737115482</v>
+        <v>849.0022737115478</v>
       </c>
       <c r="O23" t="n">
-        <v>1109.079372093691</v>
+        <v>1109.07937209369</v>
       </c>
       <c r="P23" t="n">
         <v>1294.110365298516</v>
@@ -6023,7 +6023,7 @@
         <v>1355.881533766745</v>
       </c>
       <c r="V23" t="n">
-        <v>1278.004085295868</v>
+        <v>1278.004085295867</v>
       </c>
       <c r="W23" t="n">
         <v>1177.90755048354</v>
@@ -6032,7 +6032,7 @@
         <v>1057.274165034228</v>
       </c>
       <c r="Y23" t="n">
-        <v>920.6554537060609</v>
+        <v>920.6554537060611</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>505.0685813917192</v>
+        <v>505.0685813917191</v>
       </c>
       <c r="C24" t="n">
-        <v>332.3154663135364</v>
+        <v>332.3154663135363</v>
       </c>
       <c r="D24" t="n">
         <v>184.7271596724802</v>
       </c>
       <c r="E24" t="n">
-        <v>27.1176306753349</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="F24" t="n">
-        <v>27.1176306753349</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="G24" t="n">
-        <v>27.1176306753349</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="H24" t="n">
-        <v>27.1176306753349</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="I24" t="n">
-        <v>27.1176306753349</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="J24" t="n">
         <v>61.54512539052448</v>
       </c>
       <c r="K24" t="n">
-        <v>61.54512539052448</v>
+        <v>246.9928106217454</v>
       </c>
       <c r="L24" t="n">
-        <v>61.54512539052448</v>
+        <v>557.1997160441298</v>
       </c>
       <c r="M24" t="n">
-        <v>397.1258049977939</v>
+        <v>892.7803956513991</v>
       </c>
       <c r="N24" t="n">
-        <v>649.3857345018374</v>
+        <v>1228.361075258668</v>
       </c>
       <c r="O24" t="n">
-        <v>984.9664141091068</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="P24" t="n">
-        <v>1238.17753652642</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="Q24" t="n">
         <v>1355.881533766745</v>
@@ -6108,10 +6108,10 @@
         <v>1084.366466884052</v>
       </c>
       <c r="X24" t="n">
-        <v>877.8395682896293</v>
+        <v>877.8395682896291</v>
       </c>
       <c r="Y24" t="n">
-        <v>672.1111325132797</v>
+        <v>672.1111325132796</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>322.5044855359896</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="C25" t="n">
-        <v>322.5044855359896</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="D25" t="n">
-        <v>322.5044855359896</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="E25" t="n">
-        <v>322.5044855359896</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="F25" t="n">
-        <v>322.5044855359896</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="G25" t="n">
-        <v>322.5044855359896</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="H25" t="n">
-        <v>175.0686038201321</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="I25" t="n">
-        <v>27.1176306753349</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="J25" t="n">
-        <v>27.1176306753349</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="K25" t="n">
         <v>40.36207641856532</v>
@@ -6163,34 +6163,34 @@
         <v>358.9089431436141</v>
       </c>
       <c r="P25" t="n">
-        <v>393.9836153698785</v>
+        <v>393.9836153698786</v>
       </c>
       <c r="Q25" t="n">
-        <v>393.9836153698785</v>
+        <v>393.9836153698786</v>
       </c>
       <c r="R25" t="n">
-        <v>393.9836153698785</v>
+        <v>393.9836153698786</v>
       </c>
       <c r="S25" t="n">
-        <v>393.9836153698785</v>
+        <v>173.6457251676283</v>
       </c>
       <c r="T25" t="n">
-        <v>393.9836153698785</v>
+        <v>173.6457251676283</v>
       </c>
       <c r="U25" t="n">
-        <v>359.0295692548318</v>
+        <v>63.64271439417702</v>
       </c>
       <c r="V25" t="n">
-        <v>357.5125959916109</v>
+        <v>62.12574113095615</v>
       </c>
       <c r="W25" t="n">
-        <v>322.5044855359896</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="X25" t="n">
-        <v>322.5044855359896</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="Y25" t="n">
-        <v>322.5044855359896</v>
+        <v>27.11763067533489</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>1528.421683007778</v>
       </c>
       <c r="C26" t="n">
-        <v>1300.522081324832</v>
+        <v>1300.522081324833</v>
       </c>
       <c r="D26" t="n">
-        <v>1083.107694716982</v>
+        <v>1083.107694716983</v>
       </c>
       <c r="E26" t="n">
-        <v>838.9121939670223</v>
+        <v>838.912193967023</v>
       </c>
       <c r="F26" t="n">
-        <v>570.2966652117557</v>
+        <v>570.2966652117564</v>
       </c>
       <c r="G26" t="n">
         <v>294.5895188596558</v>
       </c>
       <c r="H26" t="n">
-        <v>101.4106451426112</v>
+        <v>101.4106451426111</v>
       </c>
       <c r="I26" t="n">
         <v>57.94222293494778</v>
@@ -6227,7 +6227,7 @@
         <v>242.6307376531323</v>
       </c>
       <c r="K26" t="n">
-        <v>571.9083451915791</v>
+        <v>571.9083451915792</v>
       </c>
       <c r="L26" t="n">
         <v>998.7048586340906</v>
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>680.8489636347151</v>
+        <v>789.6076178241992</v>
       </c>
       <c r="C27" t="n">
-        <v>508.0958485565324</v>
+        <v>616.8545027460164</v>
       </c>
       <c r="D27" t="n">
-        <v>360.5075419154762</v>
+        <v>469.2661961049603</v>
       </c>
       <c r="E27" t="n">
-        <v>202.8980129183309</v>
+        <v>311.656667107815</v>
       </c>
       <c r="F27" t="n">
-        <v>57.94222293494778</v>
+        <v>166.7008771244318</v>
       </c>
       <c r="G27" t="n">
-        <v>57.94222293494778</v>
+        <v>166.7008771244318</v>
       </c>
       <c r="H27" t="n">
         <v>57.94222293494778</v>
@@ -6303,10 +6303,10 @@
         <v>57.94222293494778</v>
       </c>
       <c r="J27" t="n">
-        <v>92.36971765013735</v>
+        <v>92.36971765013737</v>
       </c>
       <c r="K27" t="n">
-        <v>277.8174028813582</v>
+        <v>277.8174028813583</v>
       </c>
       <c r="L27" t="n">
         <v>588.0243083037426</v>
@@ -6333,22 +6333,22 @@
         <v>2128.417828261266</v>
       </c>
       <c r="T27" t="n">
-        <v>1929.208204932014</v>
+        <v>2072.000619086385</v>
       </c>
       <c r="U27" t="n">
-        <v>1746.912584268114</v>
+        <v>1845.093384990724</v>
       </c>
       <c r="V27" t="n">
-        <v>1512.661340793714</v>
+        <v>1610.842141516325</v>
       </c>
       <c r="W27" t="n">
-        <v>1260.146849127048</v>
+        <v>1368.905503316532</v>
       </c>
       <c r="X27" t="n">
-        <v>1053.619950532625</v>
+        <v>1162.378604722109</v>
       </c>
       <c r="Y27" t="n">
-        <v>847.8915147562756</v>
+        <v>956.6501689457597</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152.4096372882161</v>
+        <v>152.4096372882159</v>
       </c>
       <c r="C28" t="n">
-        <v>126.1752302999581</v>
+        <v>126.1752302999579</v>
       </c>
       <c r="D28" t="n">
-        <v>118.4569712073395</v>
+        <v>118.4569712073393</v>
       </c>
       <c r="E28" t="n">
-        <v>112.7901690251453</v>
+        <v>112.7901690251452</v>
       </c>
       <c r="F28" t="n">
-        <v>107.9472080180973</v>
+        <v>107.9472080180972</v>
       </c>
       <c r="G28" t="n">
-        <v>81.39894178682444</v>
+        <v>81.39894178682438</v>
       </c>
       <c r="H28" t="n">
-        <v>63.10078192537433</v>
+        <v>63.10078192537431</v>
       </c>
       <c r="I28" t="n">
         <v>57.94222293494778</v>
@@ -6385,49 +6385,49 @@
         <v>57.94222293494778</v>
       </c>
       <c r="K28" t="n">
-        <v>71.18666867817819</v>
+        <v>211.1375137908769</v>
       </c>
       <c r="L28" t="n">
-        <v>143.9386144628772</v>
+        <v>423.8403046882747</v>
       </c>
       <c r="M28" t="n">
-        <v>332.6110686773433</v>
+        <v>651.0907756778092</v>
       </c>
       <c r="N28" t="n">
-        <v>562.9270115826254</v>
+        <v>842.8287018080221</v>
       </c>
       <c r="O28" t="n">
-        <v>771.0080539662545</v>
+        <v>910.9588990789525</v>
       </c>
       <c r="P28" t="n">
-        <v>946.0335713052176</v>
+        <v>946.0335713052169</v>
       </c>
       <c r="Q28" t="n">
-        <v>946.0335713052176</v>
+        <v>946.0335713052169</v>
       </c>
       <c r="R28" t="n">
-        <v>924.6888455984292</v>
+        <v>924.6888455984287</v>
       </c>
       <c r="S28" t="n">
-        <v>847.1433695505496</v>
+        <v>847.1433695505491</v>
       </c>
       <c r="T28" t="n">
-        <v>760.3427346199344</v>
+        <v>760.3427346199339</v>
       </c>
       <c r="U28" t="n">
-        <v>614.2068122185002</v>
+        <v>614.2068122184999</v>
       </c>
       <c r="V28" t="n">
-        <v>501.5079626688919</v>
+        <v>501.5079626688916</v>
       </c>
       <c r="W28" t="n">
-        <v>355.3179759268832</v>
+        <v>355.3179759268829</v>
       </c>
       <c r="X28" t="n">
-        <v>269.6857840890223</v>
+        <v>269.685784089022</v>
       </c>
       <c r="Y28" t="n">
-        <v>191.5199418113038</v>
+        <v>191.5199418113036</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6440,34 @@
         <v>1528.421683007778</v>
       </c>
       <c r="C29" t="n">
-        <v>1300.522081324834</v>
+        <v>1300.522081324833</v>
       </c>
       <c r="D29" t="n">
-        <v>1083.107694716984</v>
+        <v>1083.107694716983</v>
       </c>
       <c r="E29" t="n">
-        <v>838.9121939670233</v>
+        <v>838.9121939670232</v>
       </c>
       <c r="F29" t="n">
-        <v>570.2966652117568</v>
+        <v>570.2966652117566</v>
       </c>
       <c r="G29" t="n">
-        <v>294.589518859656</v>
+        <v>294.5895188596558</v>
       </c>
       <c r="H29" t="n">
-        <v>101.4106451426112</v>
+        <v>101.4106451426111</v>
       </c>
       <c r="I29" t="n">
         <v>57.94222293494778</v>
       </c>
       <c r="J29" t="n">
-        <v>242.6307376531323</v>
+        <v>242.6307376531317</v>
       </c>
       <c r="K29" t="n">
         <v>571.908345191579</v>
       </c>
       <c r="L29" t="n">
-        <v>998.7048586340906</v>
+        <v>998.7048586340903</v>
       </c>
       <c r="M29" t="n">
         <v>1473.039072864971</v>
@@ -6476,7 +6476,7 @@
         <v>1937.266784602963</v>
       </c>
       <c r="O29" t="n">
-        <v>2337.294728097804</v>
+        <v>2337.294728097805</v>
       </c>
       <c r="P29" t="n">
         <v>2662.276566415328</v>
@@ -6491,7 +6491,7 @@
         <v>2844.393325775955</v>
       </c>
       <c r="T29" t="n">
-        <v>2764.357063670671</v>
+        <v>2764.35706367067</v>
       </c>
       <c r="U29" t="n">
         <v>2653.175187384283</v>
@@ -6540,10 +6540,10 @@
         <v>57.94222293494778</v>
       </c>
       <c r="J30" t="n">
-        <v>92.36971765013735</v>
+        <v>92.36971765013737</v>
       </c>
       <c r="K30" t="n">
-        <v>277.8174028813582</v>
+        <v>277.8174028813583</v>
       </c>
       <c r="L30" t="n">
         <v>588.0243083037426</v>
@@ -6567,22 +6567,22 @@
         <v>2150.870825565504</v>
       </c>
       <c r="S30" t="n">
-        <v>2128.417828261266</v>
+        <v>1985.625414106896</v>
       </c>
       <c r="T30" t="n">
-        <v>2072.000619086385</v>
+        <v>1929.208204932014</v>
       </c>
       <c r="U30" t="n">
-        <v>1927.309505158973</v>
+        <v>1845.093384990724</v>
       </c>
       <c r="V30" t="n">
-        <v>1835.850675838944</v>
+        <v>1610.842141516325</v>
       </c>
       <c r="W30" t="n">
-        <v>1583.336184172277</v>
+        <v>1501.120064004029</v>
       </c>
       <c r="X30" t="n">
-        <v>1376.809285577855</v>
+        <v>1294.593165409607</v>
       </c>
       <c r="Y30" t="n">
         <v>1171.080849801505</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152.4096372882163</v>
+        <v>152.4096372882161</v>
       </c>
       <c r="C31" t="n">
-        <v>126.1752302999583</v>
+        <v>126.1752302999581</v>
       </c>
       <c r="D31" t="n">
-        <v>118.4569712073396</v>
+        <v>118.4569712073395</v>
       </c>
       <c r="E31" t="n">
-        <v>112.7901690251454</v>
+        <v>112.7901690251453</v>
       </c>
       <c r="F31" t="n">
         <v>107.9472080180973</v>
       </c>
       <c r="G31" t="n">
-        <v>81.39894178682449</v>
+        <v>81.39894178682444</v>
       </c>
       <c r="H31" t="n">
-        <v>63.10078192537436</v>
+        <v>63.10078192537433</v>
       </c>
       <c r="I31" t="n">
         <v>57.94222293494778</v>
@@ -6625,46 +6625,46 @@
         <v>140.1474354874099</v>
       </c>
       <c r="L31" t="n">
-        <v>212.8993812721089</v>
+        <v>352.8502263848077</v>
       </c>
       <c r="M31" t="n">
-        <v>300.1990071489449</v>
+        <v>440.1498522616436</v>
       </c>
       <c r="N31" t="n">
-        <v>530.5149500542269</v>
+        <v>670.4657951669257</v>
       </c>
       <c r="O31" t="n">
-        <v>738.595992437856</v>
+        <v>829.8834467828788</v>
       </c>
       <c r="P31" t="n">
-        <v>864.9581190091436</v>
+        <v>864.9581190091432</v>
       </c>
       <c r="Q31" t="n">
-        <v>946.0335713052181</v>
+        <v>946.0335713052176</v>
       </c>
       <c r="R31" t="n">
-        <v>924.6888455984297</v>
+        <v>924.6888455984292</v>
       </c>
       <c r="S31" t="n">
-        <v>847.14336955055</v>
+        <v>847.1433695505496</v>
       </c>
       <c r="T31" t="n">
-        <v>760.3427346199348</v>
+        <v>760.3427346199344</v>
       </c>
       <c r="U31" t="n">
-        <v>614.2068122185007</v>
+        <v>614.2068122185002</v>
       </c>
       <c r="V31" t="n">
-        <v>501.5079626688923</v>
+        <v>501.5079626688919</v>
       </c>
       <c r="W31" t="n">
-        <v>355.3179759268835</v>
+        <v>355.3179759268832</v>
       </c>
       <c r="X31" t="n">
-        <v>269.6857840890226</v>
+        <v>269.6857840890223</v>
       </c>
       <c r="Y31" t="n">
-        <v>191.5199418113041</v>
+        <v>191.5199418113038</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1528.421683007779</v>
+        <v>1528.421683007778</v>
       </c>
       <c r="C32" t="n">
-        <v>1300.522081324834</v>
+        <v>1300.522081324833</v>
       </c>
       <c r="D32" t="n">
-        <v>1083.107694716984</v>
+        <v>1083.107694716983</v>
       </c>
       <c r="E32" t="n">
-        <v>838.9121939670234</v>
+        <v>838.912193967023</v>
       </c>
       <c r="F32" t="n">
-        <v>570.2966652117568</v>
+        <v>570.2966652117564</v>
       </c>
       <c r="G32" t="n">
-        <v>294.589518859656</v>
+        <v>294.5895188596556</v>
       </c>
       <c r="H32" t="n">
-        <v>101.4106451426112</v>
+        <v>101.410645142611</v>
       </c>
       <c r="I32" t="n">
-        <v>57.94222293494779</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="J32" t="n">
-        <v>242.6307376531323</v>
+        <v>242.6307376531321</v>
       </c>
       <c r="K32" t="n">
-        <v>571.9083451915791</v>
+        <v>571.908345191579</v>
       </c>
       <c r="L32" t="n">
-        <v>998.7048586340907</v>
+        <v>998.7048586340909</v>
       </c>
       <c r="M32" t="n">
         <v>1473.039072864971</v>
@@ -6716,10 +6716,10 @@
         <v>2337.294728097805</v>
       </c>
       <c r="P32" t="n">
-        <v>2662.276566415328</v>
+        <v>2662.276566415329</v>
       </c>
       <c r="Q32" t="n">
-        <v>2863.998579996256</v>
+        <v>2863.998579996257</v>
       </c>
       <c r="R32" t="n">
         <v>2897.111146747389</v>
@@ -6728,7 +6728,7 @@
         <v>2844.393325775955</v>
       </c>
       <c r="T32" t="n">
-        <v>2764.357063670671</v>
+        <v>2764.35706367067</v>
       </c>
       <c r="U32" t="n">
         <v>2653.175187384283</v>
@@ -6743,7 +6743,7 @@
         <v>2021.022189792604</v>
       </c>
       <c r="Y32" t="n">
-        <v>1773.22160217805</v>
+        <v>1773.221602178049</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>538.0565494803445</v>
+        <v>817.9541933873309</v>
       </c>
       <c r="C33" t="n">
-        <v>365.3034344021617</v>
+        <v>645.201078309148</v>
       </c>
       <c r="D33" t="n">
-        <v>360.5075419154762</v>
+        <v>497.6127716680919</v>
       </c>
       <c r="E33" t="n">
-        <v>202.8980129183309</v>
+        <v>340.0032426709466</v>
       </c>
       <c r="F33" t="n">
-        <v>57.94222293494779</v>
+        <v>195.0474526875635</v>
       </c>
       <c r="G33" t="n">
-        <v>57.94222293494779</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="H33" t="n">
-        <v>57.94222293494779</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="I33" t="n">
-        <v>57.94222293494779</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="J33" t="n">
-        <v>92.36971765013736</v>
+        <v>92.36971765013737</v>
       </c>
       <c r="K33" t="n">
-        <v>277.8174028813582</v>
+        <v>277.8174028813583</v>
       </c>
       <c r="L33" t="n">
         <v>588.0243083037426</v>
@@ -6810,19 +6810,19 @@
         <v>1708.890946824083</v>
       </c>
       <c r="U33" t="n">
-        <v>1604.120170113743</v>
+        <v>1598.432985711988</v>
       </c>
       <c r="V33" t="n">
-        <v>1369.868926639344</v>
+        <v>1364.181742237589</v>
       </c>
       <c r="W33" t="n">
-        <v>1117.354434972677</v>
+        <v>1111.667250570922</v>
       </c>
       <c r="X33" t="n">
-        <v>910.8275363782545</v>
+        <v>1047.93276613087</v>
       </c>
       <c r="Y33" t="n">
-        <v>705.099100601905</v>
+        <v>984.9967445088913</v>
       </c>
     </row>
     <row r="34">
@@ -6847,34 +6847,34 @@
         <v>107.9472080180973</v>
       </c>
       <c r="G34" t="n">
-        <v>81.39894178682445</v>
+        <v>81.39894178682444</v>
       </c>
       <c r="H34" t="n">
-        <v>63.10078192537434</v>
+        <v>63.10078192537433</v>
       </c>
       <c r="I34" t="n">
-        <v>57.94222293494779</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="J34" t="n">
         <v>126.9029897441795</v>
       </c>
       <c r="K34" t="n">
-        <v>231.4348898324325</v>
+        <v>140.1474354874099</v>
       </c>
       <c r="L34" t="n">
-        <v>304.1868356171316</v>
+        <v>212.899381272109</v>
       </c>
       <c r="M34" t="n">
-        <v>531.4373066066662</v>
+        <v>440.1498522616436</v>
       </c>
       <c r="N34" t="n">
-        <v>761.7532495119483</v>
+        <v>670.4657951669255</v>
       </c>
       <c r="O34" t="n">
-        <v>829.8834467828788</v>
+        <v>878.5468375505546</v>
       </c>
       <c r="P34" t="n">
-        <v>864.9581190091432</v>
+        <v>913.621509776819</v>
       </c>
       <c r="Q34" t="n">
         <v>946.0335713052176</v>
@@ -6889,19 +6889,19 @@
         <v>760.3427346199344</v>
       </c>
       <c r="U34" t="n">
-        <v>614.2068122185003</v>
+        <v>614.2068122185002</v>
       </c>
       <c r="V34" t="n">
-        <v>501.507962668892</v>
+        <v>501.5079626688919</v>
       </c>
       <c r="W34" t="n">
-        <v>355.3179759268833</v>
+        <v>355.3179759268832</v>
       </c>
       <c r="X34" t="n">
         <v>269.6857840890223</v>
       </c>
       <c r="Y34" t="n">
-        <v>191.5199418113039</v>
+        <v>191.5199418113038</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>340.5538883715592</v>
       </c>
       <c r="G35" t="n">
-        <v>146.2214772168202</v>
+        <v>146.2214772168201</v>
       </c>
       <c r="H35" t="n">
         <v>34.41733869713713</v>
@@ -6935,37 +6935,37 @@
         <v>34.41733869713713</v>
       </c>
       <c r="J35" t="n">
-        <v>79.15500830262297</v>
+        <v>79.15500830262317</v>
       </c>
       <c r="K35" t="n">
-        <v>268.4817707283711</v>
+        <v>268.4817707283714</v>
       </c>
       <c r="L35" t="n">
-        <v>555.3274390581839</v>
+        <v>555.3274390581845</v>
       </c>
       <c r="M35" t="n">
-        <v>889.7108081763658</v>
+        <v>889.7108081763663</v>
       </c>
       <c r="N35" t="n">
         <v>1213.98767480166</v>
       </c>
       <c r="O35" t="n">
-        <v>1474.064773183802</v>
+        <v>1474.064773183803</v>
       </c>
       <c r="P35" t="n">
-        <v>1659.095766388627</v>
+        <v>1659.095766388628</v>
       </c>
       <c r="Q35" t="n">
-        <v>1720.866934856856</v>
+        <v>1720.866934856857</v>
       </c>
       <c r="R35" t="n">
-        <v>1720.866934856856</v>
+        <v>1720.866934856857</v>
       </c>
       <c r="S35" t="n">
-        <v>1720.866934856856</v>
+        <v>1720.866934856857</v>
       </c>
       <c r="T35" t="n">
-        <v>1720.866934856856</v>
+        <v>1720.866934856857</v>
       </c>
       <c r="U35" t="n">
         <v>1691.059793767831</v>
@@ -7017,34 +7017,34 @@
         <v>34.41733869713713</v>
       </c>
       <c r="K36" t="n">
-        <v>219.865023928358</v>
+        <v>219.8650239283581</v>
       </c>
       <c r="L36" t="n">
-        <v>530.0719293507423</v>
+        <v>530.0719293507424</v>
       </c>
       <c r="M36" t="n">
-        <v>705.7810657219078</v>
+        <v>944.8689505389094</v>
       </c>
       <c r="N36" t="n">
-        <v>1131.69563209898</v>
+        <v>1349.951815199218</v>
       </c>
       <c r="O36" t="n">
-        <v>1467.655812439544</v>
+        <v>1349.951815199218</v>
       </c>
       <c r="P36" t="n">
-        <v>1720.866934856856</v>
+        <v>1603.162937616531</v>
       </c>
       <c r="Q36" t="n">
-        <v>1720.866934856856</v>
+        <v>1720.866934856857</v>
       </c>
       <c r="R36" t="n">
-        <v>1720.866934856856</v>
+        <v>1720.866934856857</v>
       </c>
       <c r="S36" t="n">
-        <v>1720.866934856856</v>
+        <v>1720.866934856857</v>
       </c>
       <c r="T36" t="n">
-        <v>1720.866934856856</v>
+        <v>1720.866934856857</v>
       </c>
       <c r="U36" t="n">
         <v>1718.126850112928</v>
@@ -7096,46 +7096,46 @@
         <v>34.41733869713713</v>
       </c>
       <c r="K37" t="n">
-        <v>47.66178444036755</v>
+        <v>47.66178444036756</v>
       </c>
       <c r="L37" t="n">
         <v>120.4137302250666</v>
       </c>
       <c r="M37" t="n">
-        <v>207.7133561019025</v>
+        <v>207.7133561019026</v>
       </c>
       <c r="N37" t="n">
-        <v>298.0784538944859</v>
+        <v>298.078453894486</v>
       </c>
       <c r="O37" t="n">
-        <v>366.2086511654163</v>
+        <v>366.2086511654164</v>
       </c>
       <c r="P37" t="n">
-        <v>401.2833233916808</v>
+        <v>401.2833233916809</v>
       </c>
       <c r="Q37" t="n">
-        <v>401.2833233916808</v>
+        <v>401.2833233916809</v>
       </c>
       <c r="R37" t="n">
-        <v>401.2833233916808</v>
+        <v>401.2833233916809</v>
       </c>
       <c r="S37" t="n">
-        <v>401.2833233916808</v>
+        <v>401.2833233916809</v>
       </c>
       <c r="T37" t="n">
-        <v>395.8574236584273</v>
+        <v>395.8574236584274</v>
       </c>
       <c r="U37" t="n">
-        <v>331.0962364543548</v>
+        <v>331.0962364543549</v>
       </c>
       <c r="V37" t="n">
-        <v>299.7721221021081</v>
+        <v>299.7721221021083</v>
       </c>
       <c r="W37" t="n">
-        <v>234.9568705574611</v>
+        <v>234.9568705574612</v>
       </c>
       <c r="X37" t="n">
-        <v>230.6994139169618</v>
+        <v>230.699413916962</v>
       </c>
       <c r="Y37" t="n">
         <v>34.41733869713713</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>973.1799653781346</v>
+        <v>973.1799653781347</v>
       </c>
       <c r="C38" t="n">
-        <v>826.6550988925511</v>
+        <v>826.6550988925513</v>
       </c>
       <c r="D38" t="n">
-        <v>690.6154474820628</v>
+        <v>690.615447482063</v>
       </c>
       <c r="E38" t="n">
-        <v>527.7946819294643</v>
+        <v>527.7946819294646</v>
       </c>
       <c r="F38" t="n">
-        <v>340.5538883715594</v>
+        <v>340.5538883715597</v>
       </c>
       <c r="G38" t="n">
-        <v>146.2214772168202</v>
+        <v>146.2214772168201</v>
       </c>
       <c r="H38" t="n">
         <v>34.41733869713713</v>
@@ -7172,37 +7172,37 @@
         <v>34.41733869713713</v>
       </c>
       <c r="J38" t="n">
-        <v>79.155008302623</v>
+        <v>79.15500830262317</v>
       </c>
       <c r="K38" t="n">
-        <v>268.4817707283711</v>
+        <v>268.4817707283714</v>
       </c>
       <c r="L38" t="n">
-        <v>555.3274390581842</v>
+        <v>555.3274390581845</v>
       </c>
       <c r="M38" t="n">
-        <v>889.710808176366</v>
+        <v>889.7108081763663</v>
       </c>
       <c r="N38" t="n">
         <v>1213.98767480166</v>
       </c>
       <c r="O38" t="n">
-        <v>1474.064773183802</v>
+        <v>1474.064773183803</v>
       </c>
       <c r="P38" t="n">
-        <v>1659.095766388627</v>
+        <v>1659.095766388628</v>
       </c>
       <c r="Q38" t="n">
-        <v>1720.866934856856</v>
+        <v>1720.866934856857</v>
       </c>
       <c r="R38" t="n">
-        <v>1720.866934856856</v>
+        <v>1720.866934856857</v>
       </c>
       <c r="S38" t="n">
-        <v>1720.866934856856</v>
+        <v>1720.866934856857</v>
       </c>
       <c r="T38" t="n">
-        <v>1720.866934856856</v>
+        <v>1720.866934856857</v>
       </c>
       <c r="U38" t="n">
         <v>1691.059793767831</v>
@@ -7214,7 +7214,7 @@
         <v>1453.471528306574</v>
       </c>
       <c r="X38" t="n">
-        <v>1303.031001768237</v>
+        <v>1303.031001768236</v>
       </c>
       <c r="Y38" t="n">
         <v>1136.605149351044</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>652.0632294795291</v>
+        <v>734.6495305000346</v>
       </c>
       <c r="C39" t="n">
-        <v>479.3101144013463</v>
+        <v>561.8964154218518</v>
       </c>
       <c r="D39" t="n">
-        <v>331.7218077602902</v>
+        <v>414.3081087807957</v>
       </c>
       <c r="E39" t="n">
-        <v>174.1122787631449</v>
+        <v>256.6985797836504</v>
       </c>
       <c r="F39" t="n">
-        <v>34.41733869713713</v>
+        <v>111.7427898002672</v>
       </c>
       <c r="G39" t="n">
-        <v>34.41733869713713</v>
+        <v>111.7427898002672</v>
       </c>
       <c r="H39" t="n">
-        <v>34.41733869713713</v>
+        <v>111.7427898002672</v>
       </c>
       <c r="I39" t="n">
         <v>34.41733869713713</v>
@@ -7254,49 +7254,49 @@
         <v>34.41733869713713</v>
       </c>
       <c r="K39" t="n">
-        <v>34.41733869713713</v>
+        <v>219.8650239283581</v>
       </c>
       <c r="L39" t="n">
-        <v>344.6242441195214</v>
+        <v>530.0719293507424</v>
       </c>
       <c r="M39" t="n">
-        <v>759.4212653076884</v>
+        <v>944.8689505389094</v>
       </c>
       <c r="N39" t="n">
-        <v>1185.33583168476</v>
+        <v>1370.783516915981</v>
       </c>
       <c r="O39" t="n">
-        <v>1521.296012025324</v>
+        <v>1706.743697256545</v>
       </c>
       <c r="P39" t="n">
-        <v>1720.866934856856</v>
+        <v>1720.866934856857</v>
       </c>
       <c r="Q39" t="n">
-        <v>1720.866934856856</v>
+        <v>1720.866934856857</v>
       </c>
       <c r="R39" t="n">
-        <v>1720.866934856856</v>
+        <v>1720.866934856857</v>
       </c>
       <c r="S39" t="n">
-        <v>1720.866934856856</v>
+        <v>1720.866934856857</v>
       </c>
       <c r="T39" t="n">
-        <v>1720.866934856856</v>
+        <v>1521.657311527605</v>
       </c>
       <c r="U39" t="n">
-        <v>1718.126850112928</v>
+        <v>1518.917226783676</v>
       </c>
       <c r="V39" t="n">
-        <v>1483.875606638529</v>
+        <v>1399.419356537474</v>
       </c>
       <c r="W39" t="n">
-        <v>1231.361114971862</v>
+        <v>1146.904864870807</v>
       </c>
       <c r="X39" t="n">
-        <v>1024.834216377439</v>
+        <v>940.3779662763842</v>
       </c>
       <c r="Y39" t="n">
-        <v>819.1057806010896</v>
+        <v>734.6495305000346</v>
       </c>
     </row>
     <row r="40">
@@ -7333,46 +7333,46 @@
         <v>34.41733869713713</v>
       </c>
       <c r="K40" t="n">
-        <v>47.66178444036755</v>
+        <v>47.66178444036756</v>
       </c>
       <c r="L40" t="n">
         <v>120.4137302250666</v>
       </c>
       <c r="M40" t="n">
-        <v>207.7133561019025</v>
+        <v>207.7133561019026</v>
       </c>
       <c r="N40" t="n">
-        <v>298.0784538944859</v>
+        <v>298.078453894486</v>
       </c>
       <c r="O40" t="n">
-        <v>366.2086511654163</v>
+        <v>366.2086511654164</v>
       </c>
       <c r="P40" t="n">
-        <v>401.2833233916808</v>
+        <v>401.2833233916809</v>
       </c>
       <c r="Q40" t="n">
-        <v>401.2833233916808</v>
+        <v>401.2833233916809</v>
       </c>
       <c r="R40" t="n">
-        <v>401.2833233916808</v>
+        <v>401.2833233916809</v>
       </c>
       <c r="S40" t="n">
-        <v>401.2833233916808</v>
+        <v>205.001248171856</v>
       </c>
       <c r="T40" t="n">
-        <v>395.8574236584273</v>
+        <v>199.5753484386025</v>
       </c>
       <c r="U40" t="n">
-        <v>331.0962364543548</v>
+        <v>134.8141612345301</v>
       </c>
       <c r="V40" t="n">
-        <v>299.7721221021081</v>
+        <v>103.4900468822834</v>
       </c>
       <c r="W40" t="n">
-        <v>234.9568705574611</v>
+        <v>38.6747953376364</v>
       </c>
       <c r="X40" t="n">
-        <v>230.6994139169618</v>
+        <v>34.41733869713713</v>
       </c>
       <c r="Y40" t="n">
         <v>34.41733869713713</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>981.5385932592719</v>
+        <v>981.538593259272</v>
       </c>
       <c r="C41" t="n">
-        <v>833.6752536816107</v>
+        <v>833.6752536816109</v>
       </c>
       <c r="D41" t="n">
-        <v>696.2971291790448</v>
+        <v>696.2971291790452</v>
       </c>
       <c r="E41" t="n">
-        <v>532.1378905343685</v>
+        <v>532.137890534369</v>
       </c>
       <c r="F41" t="n">
-        <v>343.558623884386</v>
+        <v>343.5586238843866</v>
       </c>
       <c r="G41" t="n">
-        <v>147.8877396375698</v>
+        <v>147.8877396375697</v>
       </c>
       <c r="H41" t="n">
         <v>34.74512802580917</v>
@@ -7409,28 +7409,28 @@
         <v>34.74512802580917</v>
       </c>
       <c r="J41" t="n">
-        <v>79.48279763129503</v>
+        <v>79.48279763129504</v>
       </c>
       <c r="K41" t="n">
-        <v>268.8095600570431</v>
+        <v>268.8095600570432</v>
       </c>
       <c r="L41" t="n">
-        <v>571.7169054917861</v>
+        <v>555.6552283868562</v>
       </c>
       <c r="M41" t="n">
-        <v>906.100274609968</v>
+        <v>890.0385975050381</v>
       </c>
       <c r="N41" t="n">
-        <v>1230.377141235262</v>
+        <v>1214.315464130332</v>
       </c>
       <c r="O41" t="n">
-        <v>1490.454239617404</v>
+        <v>1474.392562512474</v>
       </c>
       <c r="P41" t="n">
-        <v>1675.48523282223</v>
+        <v>1659.4235557173</v>
       </c>
       <c r="Q41" t="n">
-        <v>1737.256401290459</v>
+        <v>1721.194724185529</v>
       </c>
       <c r="R41" t="n">
         <v>1737.256401290459</v>
@@ -7488,52 +7488,52 @@
         <v>34.74512802580917</v>
       </c>
       <c r="J42" t="n">
-        <v>69.17262274099875</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="K42" t="n">
-        <v>254.6203079722196</v>
+        <v>220.1928132570301</v>
       </c>
       <c r="L42" t="n">
-        <v>564.827213394604</v>
+        <v>530.3997186794145</v>
       </c>
       <c r="M42" t="n">
-        <v>936.3703223134318</v>
+        <v>945.1967398675815</v>
       </c>
       <c r="N42" t="n">
-        <v>1366.34128163282</v>
+        <v>1375.16769918697</v>
       </c>
       <c r="O42" t="n">
-        <v>1366.34128163282</v>
+        <v>1711.127879527534</v>
       </c>
       <c r="P42" t="n">
-        <v>1619.552404050133</v>
+        <v>1737.256401290459</v>
       </c>
       <c r="Q42" t="n">
         <v>1737.256401290459</v>
       </c>
       <c r="R42" t="n">
-        <v>1659.731557336898</v>
+        <v>1737.256401290459</v>
       </c>
       <c r="S42" t="n">
-        <v>1494.486145878289</v>
+        <v>1572.01098983185</v>
       </c>
       <c r="T42" t="n">
-        <v>1355.023060297071</v>
+        <v>1572.01098983185</v>
       </c>
       <c r="U42" t="n">
-        <v>1350.944502461065</v>
+        <v>1567.932431995844</v>
       </c>
       <c r="V42" t="n">
-        <v>1116.693258986666</v>
+        <v>1489.464245884576</v>
       </c>
       <c r="W42" t="n">
-        <v>864.1787673199991</v>
+        <v>1236.949754217909</v>
       </c>
       <c r="X42" t="n">
-        <v>657.6518687255766</v>
+        <v>1030.422855623487</v>
       </c>
       <c r="Y42" t="n">
-        <v>657.6518687255766</v>
+        <v>824.6944198471371</v>
       </c>
     </row>
     <row r="43">
@@ -7570,10 +7570,10 @@
         <v>34.74512802580917</v>
       </c>
       <c r="K43" t="n">
-        <v>47.98957376903959</v>
+        <v>47.9895737690396</v>
       </c>
       <c r="L43" t="n">
-        <v>120.7415195537386</v>
+        <v>120.7415195537387</v>
       </c>
       <c r="M43" t="n">
         <v>208.0411454305746</v>
@@ -7585,31 +7585,31 @@
         <v>366.5364404940884</v>
       </c>
       <c r="P43" t="n">
-        <v>401.6111127203528</v>
+        <v>401.6111127203529</v>
       </c>
       <c r="Q43" t="n">
-        <v>401.6111127203528</v>
+        <v>401.6111127203529</v>
       </c>
       <c r="R43" t="n">
-        <v>401.6111127203528</v>
+        <v>401.6111127203529</v>
       </c>
       <c r="S43" t="n">
-        <v>212.0214029609159</v>
+        <v>401.6111127203529</v>
       </c>
       <c r="T43" t="n">
-        <v>205.2570301355848</v>
+        <v>394.8467398950219</v>
       </c>
       <c r="U43" t="n">
-        <v>139.1573698394348</v>
+        <v>328.7470795988719</v>
       </c>
       <c r="V43" t="n">
-        <v>106.4947823951106</v>
+        <v>296.0844921545477</v>
       </c>
       <c r="W43" t="n">
-        <v>40.34105775838601</v>
+        <v>229.9307675178232</v>
       </c>
       <c r="X43" t="n">
-        <v>34.74512802580917</v>
+        <v>224.3348377852464</v>
       </c>
       <c r="Y43" t="n">
         <v>34.74512802580917</v>
@@ -7625,13 +7625,13 @@
         <v>981.5385932592728</v>
       </c>
       <c r="C44" t="n">
-        <v>833.6752536816116</v>
+        <v>833.6752536816118</v>
       </c>
       <c r="D44" t="n">
-        <v>696.2971291790457</v>
+        <v>696.2971291790459</v>
       </c>
       <c r="E44" t="n">
-        <v>532.1378905343695</v>
+        <v>532.1378905343696</v>
       </c>
       <c r="F44" t="n">
         <v>343.5586238843871</v>
@@ -7646,16 +7646,16 @@
         <v>34.74512802580917</v>
       </c>
       <c r="J44" t="n">
-        <v>79.48279763129503</v>
+        <v>79.48279763129504</v>
       </c>
       <c r="K44" t="n">
-        <v>268.8095600570431</v>
+        <v>268.8095600570432</v>
       </c>
       <c r="L44" t="n">
-        <v>555.655228386856</v>
+        <v>555.6552283868562</v>
       </c>
       <c r="M44" t="n">
-        <v>890.0385975050378</v>
+        <v>890.0385975050381</v>
       </c>
       <c r="N44" t="n">
         <v>1214.315464130332</v>
@@ -7664,10 +7664,10 @@
         <v>1474.392562512474</v>
       </c>
       <c r="P44" t="n">
-        <v>1659.423555717299</v>
+        <v>1659.4235557173</v>
       </c>
       <c r="Q44" t="n">
-        <v>1721.194724185528</v>
+        <v>1721.194724185529</v>
       </c>
       <c r="R44" t="n">
         <v>1737.256401290459</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>657.6518687255766</v>
+        <v>489.5592628399909</v>
       </c>
       <c r="C45" t="n">
-        <v>484.8987536473938</v>
+        <v>316.8061477618081</v>
       </c>
       <c r="D45" t="n">
-        <v>337.3104470063377</v>
+        <v>316.8061477618081</v>
       </c>
       <c r="E45" t="n">
-        <v>179.7009180091923</v>
+        <v>316.8061477618081</v>
       </c>
       <c r="F45" t="n">
-        <v>34.74512802580917</v>
+        <v>171.8503577784249</v>
       </c>
       <c r="G45" t="n">
         <v>34.74512802580917</v>
@@ -7725,22 +7725,22 @@
         <v>34.74512802580917</v>
       </c>
       <c r="J45" t="n">
-        <v>69.17262274099875</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="K45" t="n">
-        <v>254.6203079722196</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="L45" t="n">
-        <v>556.5282404423392</v>
+        <v>344.9520334481935</v>
       </c>
       <c r="M45" t="n">
-        <v>971.3252616305061</v>
+        <v>759.7490546363606</v>
       </c>
       <c r="N45" t="n">
-        <v>1401.296220949895</v>
+        <v>1189.720013955749</v>
       </c>
       <c r="O45" t="n">
-        <v>1737.256401290459</v>
+        <v>1525.680194296313</v>
       </c>
       <c r="P45" t="n">
         <v>1737.256401290459</v>
@@ -7758,19 +7758,19 @@
         <v>1737.256401290459</v>
       </c>
       <c r="U45" t="n">
-        <v>1723.715489358975</v>
+        <v>1555.622883473389</v>
       </c>
       <c r="V45" t="n">
-        <v>1489.464245884576</v>
+        <v>1321.37163999899</v>
       </c>
       <c r="W45" t="n">
-        <v>1236.949754217909</v>
+        <v>1068.857148332324</v>
       </c>
       <c r="X45" t="n">
-        <v>1030.422855623487</v>
+        <v>862.3302497379009</v>
       </c>
       <c r="Y45" t="n">
-        <v>824.6944198471371</v>
+        <v>656.6018139615513</v>
       </c>
     </row>
     <row r="46">
@@ -7807,10 +7807,10 @@
         <v>34.74512802580917</v>
       </c>
       <c r="K46" t="n">
-        <v>47.98957376903959</v>
+        <v>47.9895737690396</v>
       </c>
       <c r="L46" t="n">
-        <v>120.7415195537386</v>
+        <v>120.7415195537387</v>
       </c>
       <c r="M46" t="n">
         <v>208.0411454305746</v>
@@ -7822,28 +7822,28 @@
         <v>366.5364404940884</v>
       </c>
       <c r="P46" t="n">
-        <v>401.6111127203528</v>
+        <v>401.6111127203529</v>
       </c>
       <c r="Q46" t="n">
-        <v>401.6111127203528</v>
+        <v>401.6111127203529</v>
       </c>
       <c r="R46" t="n">
-        <v>401.6111127203528</v>
+        <v>401.6111127203529</v>
       </c>
       <c r="S46" t="n">
-        <v>401.6111127203528</v>
+        <v>212.0214029609155</v>
       </c>
       <c r="T46" t="n">
-        <v>394.8467398950218</v>
+        <v>205.2570301355845</v>
       </c>
       <c r="U46" t="n">
-        <v>328.7470795988719</v>
+        <v>139.1573698394346</v>
       </c>
       <c r="V46" t="n">
-        <v>296.0844921545478</v>
+        <v>106.4947823951104</v>
       </c>
       <c r="W46" t="n">
-        <v>229.9307675178233</v>
+        <v>40.34105775838592</v>
       </c>
       <c r="X46" t="n">
         <v>34.74512802580917</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>175.8604797789567</v>
+        <v>130.6709145208902</v>
       </c>
       <c r="K11" t="n">
         <v>145.8720751086092</v>
@@ -8702,13 +8702,13 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O11" t="n">
-        <v>225.9726626116783</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P11" t="n">
-        <v>334.6706564983419</v>
+        <v>272.1958155197091</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.8075902863009</v>
+        <v>158.4124706214231</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8766,28 +8766,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>96.35942956696501</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>87.72295232013138</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>361.9169073952427</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>65.34637621094235</v>
+        <v>404.3167596526285</v>
       </c>
       <c r="N12" t="n">
-        <v>391.8559516727276</v>
+        <v>391.8559516727275</v>
       </c>
       <c r="O12" t="n">
-        <v>409.2334779737637</v>
+        <v>199.0716384796295</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2012793855346</v>
+        <v>75.43246886299644</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>99.5874527399036</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8933,19 +8933,19 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M14" t="n">
-        <v>129.7330959252914</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N14" t="n">
         <v>454.8408013884635</v>
       </c>
       <c r="O14" t="n">
-        <v>396.0321885132552</v>
+        <v>221.633501782463</v>
       </c>
       <c r="P14" t="n">
-        <v>334.6706564983419</v>
+        <v>147.7706633621547</v>
       </c>
       <c r="Q14" t="n">
-        <v>197.2698893265763</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9003,28 +9003,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>96.35942956696499</v>
       </c>
       <c r="K15" t="n">
-        <v>87.72295232013138</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
-        <v>243.9400872890345</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>404.3167596526286</v>
+        <v>404.3167596526285</v>
       </c>
       <c r="N15" t="n">
-        <v>391.8559516727276</v>
+        <v>391.8559516727275</v>
       </c>
       <c r="O15" t="n">
-        <v>409.2334779737637</v>
+        <v>233.8468856666894</v>
       </c>
       <c r="P15" t="n">
-        <v>75.43246886299647</v>
+        <v>75.43246886299644</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>99.5874527399036</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9164,10 +9164,10 @@
         <v>130.6709145208902</v>
       </c>
       <c r="K17" t="n">
-        <v>145.8720751086092</v>
+        <v>310.7452137881421</v>
       </c>
       <c r="L17" t="n">
-        <v>371.8928221538358</v>
+        <v>144.624563809425</v>
       </c>
       <c r="M17" t="n">
         <v>467.4940748325458</v>
@@ -9182,7 +9182,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
-        <v>158.4124706214231</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9240,28 +9240,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>96.35942956696501</v>
+        <v>96.35942956696499</v>
       </c>
       <c r="K18" t="n">
-        <v>87.72295232013138</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
-        <v>141.839450458936</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>404.3167596526286</v>
+        <v>404.3167596526285</v>
       </c>
       <c r="N18" t="n">
         <v>391.8559516727276</v>
       </c>
       <c r="O18" t="n">
-        <v>409.2334779737637</v>
+        <v>70.26309453207752</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2012793855346</v>
+        <v>120.1233334922292</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.5874527399036</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.8604797789567</v>
+        <v>152.3227788192319</v>
       </c>
       <c r="K20" t="n">
         <v>337.1112290740114</v>
@@ -9407,13 +9407,13 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M20" t="n">
-        <v>467.4940748325458</v>
+        <v>129.7330959252914</v>
       </c>
       <c r="N20" t="n">
-        <v>356.2462613014264</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O20" t="n">
-        <v>133.3280487333132</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P20" t="n">
         <v>334.6706564983419</v>
@@ -9480,25 +9480,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>87.72295232013138</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>385.6739591155975</v>
+        <v>72.33365060813864</v>
       </c>
       <c r="M21" t="n">
-        <v>381.475814331445</v>
+        <v>132.8334916380355</v>
       </c>
       <c r="N21" t="n">
-        <v>391.8559516727276</v>
+        <v>391.8559516727275</v>
       </c>
       <c r="O21" t="n">
         <v>409.2334779737637</v>
       </c>
       <c r="P21" t="n">
-        <v>75.43246886299647</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.5874527399036</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9644,7 +9644,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M23" t="n">
-        <v>342.6241141890356</v>
+        <v>342.6241141890351</v>
       </c>
       <c r="N23" t="n">
         <v>454.8408013884635</v>
@@ -9717,25 +9717,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>87.72295232013138</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
-        <v>72.33365060813867</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>404.3167596526287</v>
+        <v>404.3167596526285</v>
       </c>
       <c r="N24" t="n">
-        <v>307.6935778310853</v>
+        <v>391.8559516727275</v>
       </c>
       <c r="O24" t="n">
-        <v>409.2334779737639</v>
+        <v>199.0716384796295</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>75.43246886299644</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>99.5874527399036</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10662,7 +10662,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>96.35942956696501</v>
+        <v>96.35942956696499</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10671,19 +10671,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>242.8303523434328</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>483.1023019452555</v>
+        <v>462.0601789990302</v>
       </c>
       <c r="O36" t="n">
-        <v>409.6168120477987</v>
+        <v>70.26309453207752</v>
       </c>
       <c r="P36" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.5874527399036</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10899,10 +10899,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>96.35942956696501</v>
+        <v>96.35942956696499</v>
       </c>
       <c r="K39" t="n">
-        <v>87.72295232013138</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -10917,7 +10917,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>277.019259601918</v>
+        <v>89.69836542896746</v>
       </c>
       <c r="Q39" t="n">
         <v>99.5874527399036</v>
@@ -11136,7 +11136,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>96.35942956696499</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11145,19 +11145,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>440.6424458259199</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>487.1996685536561</v>
+        <v>487.199668553656</v>
       </c>
       <c r="O42" t="n">
-        <v>70.26309453207755</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>331.2012793855346</v>
+        <v>101.8249150881729</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>99.5874527399036</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11373,25 +11373,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>96.35942956696499</v>
       </c>
       <c r="K45" t="n">
-        <v>275.0438464930818</v>
+        <v>87.72295232013136</v>
       </c>
       <c r="L45" t="n">
-        <v>377.291158153714</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>487.1996685536561</v>
+        <v>487.199668553656</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>75.43246886299647</v>
+        <v>289.1458092611234</v>
       </c>
       <c r="Q45" t="n">
         <v>99.5874527399036</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>239.2980585815355</v>
       </c>
       <c r="C11" t="n">
-        <v>222.566744269083</v>
+        <v>222.5667442690831</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>212.1863813447388</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>238.6996843454279</v>
       </c>
       <c r="F11" t="n">
-        <v>262.8755120706812</v>
+        <v>262.8755120706813</v>
       </c>
       <c r="G11" t="n">
-        <v>65.13231286397193</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>39.97987658855408</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>184.1148701126597</v>
+        <v>184.1148701126598</v>
       </c>
       <c r="W11" t="n">
-        <v>206.111765590695</v>
+        <v>89.75179883420367</v>
       </c>
       <c r="X11" t="n">
-        <v>226.4432477213098</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>242.2687203413762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.2980585815355</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>222.5667442690831</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>212.1863813447388</v>
       </c>
       <c r="E14" t="n">
         <v>238.6996843454279</v>
       </c>
       <c r="F14" t="n">
-        <v>134.3517483254077</v>
+        <v>262.8755120706813</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>188.1932235828416</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>184.1148701126598</v>
+        <v>80.60971421639582</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>206.111765590695</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>226.4432477213098</v>
       </c>
       <c r="Y14" t="n">
-        <v>242.2687203413763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -26314,28 +26314,28 @@
         <v>406078.1888778703</v>
       </c>
       <c r="C2" t="n">
-        <v>406078.1888778704</v>
+        <v>406078.1888778703</v>
       </c>
       <c r="D2" t="n">
         <v>406078.1888778702</v>
       </c>
       <c r="E2" t="n">
-        <v>349269.8809350464</v>
+        <v>349269.8809350467</v>
       </c>
       <c r="F2" t="n">
-        <v>349269.8809350464</v>
+        <v>349269.8809350465</v>
       </c>
       <c r="G2" t="n">
-        <v>406959.704307468</v>
+        <v>406959.7043074681</v>
       </c>
       <c r="H2" t="n">
         <v>406959.7043074681</v>
       </c>
       <c r="I2" t="n">
-        <v>406959.704307468</v>
+        <v>406959.7043074681</v>
       </c>
       <c r="J2" t="n">
-        <v>406959.7043074682</v>
+        <v>406959.7043074683</v>
       </c>
       <c r="K2" t="n">
         <v>406959.7043074684</v>
@@ -26344,16 +26344,16 @@
         <v>406959.7043074683</v>
       </c>
       <c r="M2" t="n">
+        <v>406959.704307468</v>
+      </c>
+      <c r="N2" t="n">
+        <v>406959.7043074681</v>
+      </c>
+      <c r="O2" t="n">
         <v>406959.7043074683</v>
       </c>
-      <c r="N2" t="n">
-        <v>406959.704307468</v>
-      </c>
-      <c r="O2" t="n">
-        <v>406959.7043074684</v>
-      </c>
       <c r="P2" t="n">
-        <v>406959.7043074684</v>
+        <v>406959.7043074683</v>
       </c>
     </row>
     <row r="3">
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>85612.95690119278</v>
+        <v>85612.95690119275</v>
       </c>
       <c r="M3" t="n">
-        <v>75640.37506652033</v>
+        <v>75640.37506652036</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27404.59979182163</v>
+        <v>27404.59979182162</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26436,25 +26436,25 @@
         <v>390012.5802270992</v>
       </c>
       <c r="I4" t="n">
-        <v>390012.5802270993</v>
+        <v>390012.5802270992</v>
       </c>
       <c r="J4" t="n">
-        <v>386268.9668810162</v>
+        <v>386268.9668810163</v>
       </c>
       <c r="K4" t="n">
-        <v>386268.9668810162</v>
+        <v>386268.9668810163</v>
       </c>
       <c r="L4" t="n">
         <v>386268.9668810163</v>
       </c>
       <c r="M4" t="n">
-        <v>386358.0892739211</v>
+        <v>386358.089273921</v>
       </c>
       <c r="N4" t="n">
         <v>386358.0892739211</v>
       </c>
       <c r="O4" t="n">
-        <v>386317.6622646819</v>
+        <v>386317.662264682</v>
       </c>
       <c r="P4" t="n">
         <v>386317.662264682</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>35679.87797245103</v>
+        <v>35679.87797245102</v>
       </c>
       <c r="F5" t="n">
         <v>35679.87797245102</v>
@@ -26488,7 +26488,7 @@
         <v>44676.622564609</v>
       </c>
       <c r="I5" t="n">
-        <v>44676.622564609</v>
+        <v>44676.62256460899</v>
       </c>
       <c r="J5" t="n">
         <v>58849.83301596968</v>
@@ -26497,13 +26497,13 @@
         <v>58849.83301596968</v>
       </c>
       <c r="L5" t="n">
-        <v>58849.83301596969</v>
+        <v>58849.83301596968</v>
       </c>
       <c r="M5" t="n">
-        <v>47743.60268240751</v>
+        <v>47743.60268240752</v>
       </c>
       <c r="N5" t="n">
-        <v>47743.60268240751</v>
+        <v>47743.60268240752</v>
       </c>
       <c r="O5" t="n">
         <v>47881.32371876418</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70779.89435914598</v>
+        <v>-70784.30193629391</v>
       </c>
       <c r="C6" t="n">
-        <v>-70779.89435914587</v>
+        <v>-70784.30193629391</v>
       </c>
       <c r="D6" t="n">
-        <v>-70779.8943591461</v>
+        <v>-70784.30193629408</v>
       </c>
       <c r="E6" t="n">
-        <v>-335415.7208755802</v>
+        <v>-335704.1699924419</v>
       </c>
       <c r="F6" t="n">
-        <v>-10714.7629184675</v>
+        <v>-11003.21203532955</v>
       </c>
       <c r="G6" t="n">
-        <v>-113342.455385433</v>
+        <v>-113342.4553854329</v>
       </c>
       <c r="H6" t="n">
-        <v>-27729.49848424015</v>
+        <v>-27729.4984842401</v>
       </c>
       <c r="I6" t="n">
-        <v>-27729.49848424027</v>
+        <v>-27729.49848424009</v>
       </c>
       <c r="J6" t="n">
         <v>-166451.1009132634</v>
       </c>
       <c r="K6" t="n">
-        <v>-38159.09558951746</v>
+        <v>-38159.09558951757</v>
       </c>
       <c r="L6" t="n">
-        <v>-123772.0524907104</v>
+        <v>-123772.0524907105</v>
       </c>
       <c r="M6" t="n">
-        <v>-102782.3627153806</v>
+        <v>-102782.3627153809</v>
       </c>
       <c r="N6" t="n">
-        <v>-27141.98764886058</v>
+        <v>-27141.98764886053</v>
       </c>
       <c r="O6" t="n">
-        <v>-54643.88146779937</v>
+        <v>-54643.88146779954</v>
       </c>
       <c r="P6" t="n">
-        <v>-27239.28167597781</v>
+        <v>-27239.28167597792</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>251.4345475363505</v>
       </c>
       <c r="J2" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="K2" t="n">
         <v>141.3644900128269</v>
@@ -26808,7 +26808,7 @@
         <v>338.9703834416862</v>
       </c>
       <c r="I4" t="n">
-        <v>338.9703834416863</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="J4" t="n">
         <v>724.2777866868472</v>
@@ -26817,13 +26817,13 @@
         <v>724.2777866868472</v>
       </c>
       <c r="L4" t="n">
-        <v>724.2777866868473</v>
+        <v>724.2777866868472</v>
       </c>
       <c r="M4" t="n">
-        <v>430.2167337142141</v>
+        <v>430.2167337142142</v>
       </c>
       <c r="N4" t="n">
-        <v>430.2167337142141</v>
+        <v>430.2167337142142</v>
       </c>
       <c r="O4" t="n">
         <v>434.3141003226146</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.34829388633608</v>
+        <v>34.34829388633602</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>107.016196126491</v>
+        <v>107.0161961264909</v>
       </c>
       <c r="M2" t="n">
         <v>80.56098784538804</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>385.3074032451609</v>
+        <v>385.307403245161</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>44.90933046905303</v>
+        <v>44.90933046905317</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.097366608400534</v>
+        <v>4.097366608400478</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.34829388633608</v>
+        <v>34.34829388633602</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28166,19 +28166,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>144.4183514098596</v>
       </c>
       <c r="C12" t="n">
         <v>144.4183514098596</v>
       </c>
       <c r="D12" t="n">
-        <v>76.45505072117645</v>
+        <v>144.4183514098596</v>
       </c>
       <c r="E12" t="n">
         <v>144.4183514098596</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>75.54293139486663</v>
       </c>
       <c r="G12" t="n">
         <v>135.7341774550896</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>76.74959551402544</v>
+        <v>76.74959551402543</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28223,19 +28223,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>144.4183514098596</v>
       </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>144.4183514098596</v>
       </c>
       <c r="X12" t="n">
-        <v>144.4183514098596</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>144.4183514098596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28272,19 +28272,19 @@
         <v>144.4183514098596</v>
       </c>
       <c r="K13" t="n">
-        <v>30.14022980116603</v>
+        <v>30.14022980116701</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>144.4183514098596</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>144.4183514098596</v>
       </c>
       <c r="N13" t="n">
-        <v>144.4183514098596</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>144.4183514098596</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>144.4183514098596</v>
       </c>
       <c r="C15" t="n">
-        <v>144.4183514098596</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>144.4183514098596</v>
@@ -28415,13 +28415,13 @@
         <v>144.4183514098596</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.7341774550896</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.6710676475892</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28451,10 +28451,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>76.74959551402544</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>107.5757895962353</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>144.4183514098596</v>
@@ -28463,13 +28463,13 @@
         <v>144.4183514098596</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>84.42637209113124</v>
+      </c>
+      <c r="X15" t="n">
         <v>144.4183514098596</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>144.4183514098596</v>
@@ -28509,19 +28509,19 @@
         <v>144.4183514098596</v>
       </c>
       <c r="K16" t="n">
-        <v>30.14022980116706</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>144.4183514098596</v>
       </c>
       <c r="M16" t="n">
+        <v>30.14022980116702</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>144.4183514098596</v>
-      </c>
-      <c r="N16" t="n">
-        <v>144.4183514098596</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28640,16 +28640,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>107.6710676475892</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.5521965920988</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>76.74959551402544</v>
+        <v>76.74959551402543</v>
       </c>
       <c r="S18" t="n">
         <v>163.5929573440222</v>
@@ -28700,16 +28700,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.52454860614122</v>
+        <v>108.0711142048221</v>
       </c>
     </row>
     <row r="19">
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.0836914906838</v>
+        <v>96.12636544732065</v>
       </c>
       <c r="C19" t="n">
         <v>167.3365529312023</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>59.47009375416587</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>162.4957684625474</v>
@@ -28779,7 +28779,7 @@
         <v>251.4345475363505</v>
       </c>
       <c r="V19" t="n">
-        <v>108.0071277388216</v>
+        <v>251.4345475363505</v>
       </c>
       <c r="W19" t="n">
         <v>251.4345475363505</v>
@@ -28880,25 +28880,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.7341774550896</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.6710676475892</v>
       </c>
       <c r="I21" t="n">
-        <v>76.5521965920988</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>76.74959551402544</v>
+        <v>76.74959551402543</v>
       </c>
       <c r="S21" t="n">
-        <v>163.5929573440222</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.2175270959592</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6381617547043</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>197.4659335448747</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>163.6392781138834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28974,10 +28974,10 @@
         <v>167.647273581787</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>159.4796682756625</v>
       </c>
       <c r="I22" t="n">
-        <v>13.51814537696353</v>
+        <v>146.4714634133492</v>
       </c>
       <c r="J22" t="n">
         <v>71.70714980148176</v>
@@ -29004,7 +29004,7 @@
         <v>59.47009375416587</v>
       </c>
       <c r="R22" t="n">
-        <v>162.4957684625474</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>218.1345113002278</v>
@@ -29013,7 +29013,7 @@
         <v>227.297118594136</v>
       </c>
       <c r="U22" t="n">
-        <v>251.4345475363505</v>
+        <v>121.4973296868496</v>
       </c>
       <c r="V22" t="n">
         <v>251.4345475363505</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>76.74959551402544</v>
+        <v>76.74959551402543</v>
       </c>
       <c r="S24" t="n">
         <v>163.5929573440222</v>
@@ -29177,7 +29177,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>213.0981615757888</v>
+        <v>213.098161575789</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29211,10 +29211,10 @@
         <v>167.647273581787</v>
       </c>
       <c r="H25" t="n">
-        <v>13.51814537696364</v>
+        <v>159.4796682756625</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>146.4714634133492</v>
       </c>
       <c r="J25" t="n">
         <v>71.70714980148176</v>
@@ -29244,13 +29244,13 @@
         <v>162.4957684625474</v>
       </c>
       <c r="S25" t="n">
-        <v>218.1345113002278</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>227.297118594136</v>
       </c>
       <c r="U25" t="n">
-        <v>251.4345475363505</v>
+        <v>177.1360725245299</v>
       </c>
       <c r="V25" t="n">
         <v>251.4345475363505</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="C26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="D26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="E26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="F26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="G26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="H26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="I26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="J26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="K26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="L26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128266</v>
       </c>
       <c r="M26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="N26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="O26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="P26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="Q26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="R26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="S26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="T26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="U26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="V26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="W26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="X26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="Y26" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
     </row>
     <row r="27">
@@ -29369,7 +29369,7 @@
         <v>135.7341774550896</v>
       </c>
       <c r="H27" t="n">
-        <v>107.6710676475892</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>76.5521965920988</v>
@@ -29399,22 +29399,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>76.74959551402544</v>
+        <v>76.74959551402543</v>
       </c>
       <c r="S27" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>141.364490012827</v>
       </c>
       <c r="U27" t="n">
-        <v>44.16549729744236</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>10.47207493220483</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="C28" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="D28" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="E28" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="F28" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="G28" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="H28" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="I28" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="J28" t="n">
         <v>71.70714980148176</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>141.364490012827</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>141.364490012827</v>
       </c>
       <c r="M28" t="n">
-        <v>102.3967963006365</v>
+        <v>141.364490012827</v>
       </c>
       <c r="N28" t="n">
-        <v>141.3644900128269</v>
+        <v>102.3967963006358</v>
       </c>
       <c r="O28" t="n">
-        <v>141.3644900128269</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>141.3644900128269</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>59.47009375416587</v>
       </c>
       <c r="R28" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="S28" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="T28" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="U28" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="V28" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="W28" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="X28" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
       <c r="Y28" t="n">
-        <v>141.3644900128269</v>
+        <v>141.364490012827</v>
       </c>
     </row>
     <row r="29">
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>76.74959551402544</v>
+        <v>76.74959551402543</v>
       </c>
       <c r="S30" t="n">
-        <v>141.3644900128269</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>141.3644900128269</v>
       </c>
       <c r="U30" t="n">
-        <v>81.39395896656595</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>141.3644900128269</v>
       </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>81.39395896656575</v>
       </c>
     </row>
     <row r="31">
@@ -29697,7 +29697,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29706,10 +29706,10 @@
         <v>141.3644900128269</v>
       </c>
       <c r="O31" t="n">
-        <v>141.3644900128269</v>
+        <v>92.20954984345725</v>
       </c>
       <c r="P31" t="n">
-        <v>92.20954984345775</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>141.3644900128269</v>
@@ -29831,7 +29831,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>141.3644900128269</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -29840,7 +29840,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>135.7341774550896</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>107.6710676475892</v>
@@ -29882,7 +29882,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>120.9150928114682</v>
+        <v>115.2847802537307</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29891,10 +29891,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>141.3644900128269</v>
       </c>
     </row>
     <row r="34">
@@ -29931,7 +29931,7 @@
         <v>141.3644900128269</v>
       </c>
       <c r="K34" t="n">
-        <v>92.20954984345718</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29943,13 +29943,13 @@
         <v>141.3644900128269</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>141.3644900128269</v>
+        <v>92.20954984345735</v>
       </c>
       <c r="R34" t="n">
         <v>141.3644900128269</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>76.74959551402544</v>
+        <v>76.74959551402543</v>
       </c>
       <c r="S36" t="n">
         <v>163.5929573440222</v>
@@ -30122,7 +30122,7 @@
         <v>221.925477858215</v>
       </c>
       <c r="V36" t="n">
-        <v>5.208241418201453</v>
+        <v>5.208241418201226</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30210,7 +30210,7 @@
         <v>221.925477858215</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.42941940014177</v>
+        <v>24.42941940014165</v>
       </c>
     </row>
     <row r="38">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30311,7 +30311,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>5.208241418201624</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>135.7341774550896</v>
@@ -30320,7 +30320,7 @@
         <v>107.6710676475892</v>
       </c>
       <c r="I39" t="n">
-        <v>76.5521965920988</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,19 +30347,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>76.74959551402544</v>
+        <v>76.74959551402543</v>
       </c>
       <c r="S39" t="n">
         <v>163.5929573440222</v>
       </c>
       <c r="T39" t="n">
-        <v>197.2175270959592</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>221.925477858215</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>113.6058394959143</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30429,7 +30429,7 @@
         <v>162.4957684625474</v>
       </c>
       <c r="S40" t="n">
-        <v>218.1345113002278</v>
+        <v>23.81525683260119</v>
       </c>
       <c r="T40" t="n">
         <v>221.925477858215</v>
@@ -30447,7 +30447,7 @@
         <v>221.925477858215</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.42941940014177</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="41">
@@ -30487,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>16.22391626760606</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>107.9174528904707</v>
+        <v>124.1413691580767</v>
       </c>
       <c r="S41" t="n">
         <v>193.555132774547</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -30584,19 +30584,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>76.74959551402543</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>59.1490723705532</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U42" t="n">
         <v>220.6003894970582</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>154.2252267894997</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30666,7 +30666,7 @@
         <v>162.4957684625474</v>
       </c>
       <c r="S43" t="n">
-        <v>30.44069863838524</v>
+        <v>218.1345113002278</v>
       </c>
       <c r="T43" t="n">
         <v>220.6003894970582</v>
@@ -30684,7 +30684,7 @@
         <v>220.6003894970582</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.7486738677682</v>
+        <v>31.05486120592533</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>124.1413691580769</v>
+        <v>124.1413691580767</v>
       </c>
       <c r="S44" t="n">
         <v>193.555132774547</v>
@@ -30779,16 +30779,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7341774550896</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>107.6710676475892</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>76.74959551402544</v>
+        <v>76.74959551402543</v>
       </c>
       <c r="S45" t="n">
         <v>163.5929573440222</v>
@@ -30830,7 +30830,7 @@
         <v>197.2175270959592</v>
       </c>
       <c r="U45" t="n">
-        <v>211.2326589425358</v>
+        <v>44.82097911580593</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30903,7 +30903,7 @@
         <v>162.4957684625474</v>
       </c>
       <c r="S46" t="n">
-        <v>218.1345113002278</v>
+        <v>30.44069863838479</v>
       </c>
       <c r="T46" t="n">
         <v>220.6003894970583</v>
@@ -30918,7 +30918,7 @@
         <v>220.6003894970583</v>
       </c>
       <c r="X46" t="n">
-        <v>32.90657683521533</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="Y46" t="n">
         <v>218.7486738677682</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5402005024242347</v>
+        <v>0.5402005024242349</v>
       </c>
       <c r="H11" t="n">
-        <v>5.532328395452195</v>
+        <v>5.532328395452198</v>
       </c>
       <c r="I11" t="n">
-        <v>20.82607986971033</v>
+        <v>20.82607986971034</v>
       </c>
       <c r="J11" t="n">
-        <v>45.84884239262893</v>
+        <v>45.84884239262895</v>
       </c>
       <c r="K11" t="n">
-        <v>68.7155296602468</v>
+        <v>68.71552966024683</v>
       </c>
       <c r="L11" t="n">
-        <v>85.24769078631249</v>
+        <v>85.24769078631253</v>
       </c>
       <c r="M11" t="n">
-        <v>94.85448147129948</v>
+        <v>94.85448147129951</v>
       </c>
       <c r="N11" t="n">
-        <v>96.38932614881234</v>
+        <v>96.38932614881237</v>
       </c>
       <c r="O11" t="n">
-        <v>91.01770740283135</v>
+        <v>91.01770740283139</v>
       </c>
       <c r="P11" t="n">
-        <v>77.68150749923304</v>
+        <v>77.68150749923308</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.33557700616512</v>
+        <v>58.33557700616514</v>
       </c>
       <c r="R11" t="n">
-        <v>33.93336981040636</v>
+        <v>33.93336981040638</v>
       </c>
       <c r="S11" t="n">
-        <v>12.30981894899226</v>
+        <v>12.30981894899227</v>
       </c>
       <c r="T11" t="n">
-        <v>2.364727699362088</v>
+        <v>2.36472769936209</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04321604019393877</v>
+        <v>0.04321604019393879</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2890327499527405</v>
+        <v>0.2890327499527406</v>
       </c>
       <c r="H12" t="n">
-        <v>2.791447874543573</v>
+        <v>2.791447874543575</v>
       </c>
       <c r="I12" t="n">
-        <v>9.951346873372866</v>
+        <v>9.95134687337287</v>
       </c>
       <c r="J12" t="n">
-        <v>27.30725643303502</v>
+        <v>27.30725643303503</v>
       </c>
       <c r="K12" t="n">
-        <v>46.67245067986863</v>
+        <v>46.67245067986865</v>
       </c>
       <c r="L12" t="n">
-        <v>62.75686967723869</v>
+        <v>62.75686967723872</v>
       </c>
       <c r="M12" t="n">
-        <v>73.23430686302551</v>
+        <v>73.23430686302555</v>
       </c>
       <c r="N12" t="n">
-        <v>75.1726010502086</v>
+        <v>75.17260105020863</v>
       </c>
       <c r="O12" t="n">
-        <v>68.76824380125576</v>
+        <v>68.76824380125579</v>
       </c>
       <c r="P12" t="n">
-        <v>55.19257836597552</v>
+        <v>55.19257836597554</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.89477699396738</v>
+        <v>36.89477699396739</v>
       </c>
       <c r="R12" t="n">
-        <v>17.94538424706577</v>
+        <v>17.94538424706578</v>
       </c>
       <c r="S12" t="n">
-        <v>5.368656561622172</v>
+        <v>5.368656561622175</v>
       </c>
       <c r="T12" t="n">
         <v>1.165004812309511</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01901531249689083</v>
+        <v>0.01901531249689084</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2423153483210349</v>
+        <v>0.242315348321035</v>
       </c>
       <c r="H13" t="n">
-        <v>2.154403733254294</v>
+        <v>2.154403733254295</v>
       </c>
       <c r="I13" t="n">
-        <v>7.287083384054399</v>
+        <v>7.287083384054402</v>
       </c>
       <c r="J13" t="n">
-        <v>17.13169512629717</v>
+        <v>17.13169512629718</v>
       </c>
       <c r="K13" t="n">
-        <v>28.15263774129842</v>
+        <v>28.15263774129843</v>
       </c>
       <c r="L13" t="n">
-        <v>36.02568369492915</v>
+        <v>36.02568369492916</v>
       </c>
       <c r="M13" t="n">
-        <v>37.98403228272368</v>
+        <v>37.9840322827237</v>
       </c>
       <c r="N13" t="n">
-        <v>37.08085689352713</v>
+        <v>37.08085689352714</v>
       </c>
       <c r="O13" t="n">
-        <v>34.25017305177684</v>
+        <v>34.25017305177686</v>
       </c>
       <c r="P13" t="n">
-        <v>29.30693994602771</v>
+        <v>29.30693994602772</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.2906061216823</v>
+        <v>20.29060612168231</v>
       </c>
       <c r="R13" t="n">
         <v>10.8953792072349</v>
       </c>
       <c r="S13" t="n">
-        <v>4.222895661194762</v>
+        <v>4.222895661194764</v>
       </c>
       <c r="T13" t="n">
-        <v>1.035347397371694</v>
+        <v>1.035347397371695</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01321720081751101</v>
+        <v>0.01321720081751102</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5402005024242347</v>
+        <v>0.5402005024242349</v>
       </c>
       <c r="H14" t="n">
-        <v>5.532328395452195</v>
+        <v>5.532328395452198</v>
       </c>
       <c r="I14" t="n">
-        <v>20.82607986971033</v>
+        <v>20.82607986971034</v>
       </c>
       <c r="J14" t="n">
-        <v>45.84884239262893</v>
+        <v>45.84884239262895</v>
       </c>
       <c r="K14" t="n">
-        <v>68.7155296602468</v>
+        <v>68.71552966024683</v>
       </c>
       <c r="L14" t="n">
-        <v>85.24769078631249</v>
+        <v>85.24769078631253</v>
       </c>
       <c r="M14" t="n">
-        <v>94.85448147129948</v>
+        <v>94.85448147129951</v>
       </c>
       <c r="N14" t="n">
-        <v>96.38932614881234</v>
+        <v>96.38932614881237</v>
       </c>
       <c r="O14" t="n">
-        <v>91.01770740283135</v>
+        <v>91.01770740283139</v>
       </c>
       <c r="P14" t="n">
-        <v>77.68150749923304</v>
+        <v>77.68150749923308</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.33557700616512</v>
+        <v>58.33557700616514</v>
       </c>
       <c r="R14" t="n">
-        <v>33.93336981040636</v>
+        <v>33.93336981040638</v>
       </c>
       <c r="S14" t="n">
-        <v>12.30981894899226</v>
+        <v>12.30981894899227</v>
       </c>
       <c r="T14" t="n">
-        <v>2.364727699362088</v>
+        <v>2.36472769936209</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04321604019393877</v>
+        <v>0.04321604019393879</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2890327499527405</v>
+        <v>0.2890327499527406</v>
       </c>
       <c r="H15" t="n">
-        <v>2.791447874543573</v>
+        <v>2.791447874543575</v>
       </c>
       <c r="I15" t="n">
-        <v>9.951346873372866</v>
+        <v>9.95134687337287</v>
       </c>
       <c r="J15" t="n">
-        <v>27.30725643303502</v>
+        <v>27.30725643303503</v>
       </c>
       <c r="K15" t="n">
-        <v>46.67245067986863</v>
+        <v>46.67245067986865</v>
       </c>
       <c r="L15" t="n">
-        <v>62.75686967723869</v>
+        <v>62.75686967723872</v>
       </c>
       <c r="M15" t="n">
-        <v>73.23430686302551</v>
+        <v>73.23430686302555</v>
       </c>
       <c r="N15" t="n">
-        <v>75.1726010502086</v>
+        <v>75.17260105020863</v>
       </c>
       <c r="O15" t="n">
-        <v>68.76824380125576</v>
+        <v>68.76824380125579</v>
       </c>
       <c r="P15" t="n">
-        <v>55.19257836597552</v>
+        <v>55.19257836597554</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.89477699396738</v>
+        <v>36.89477699396739</v>
       </c>
       <c r="R15" t="n">
-        <v>17.94538424706577</v>
+        <v>17.94538424706578</v>
       </c>
       <c r="S15" t="n">
-        <v>5.368656561622172</v>
+        <v>5.368656561622175</v>
       </c>
       <c r="T15" t="n">
         <v>1.165004812309511</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01901531249689083</v>
+        <v>0.01901531249689084</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2423153483210349</v>
+        <v>0.242315348321035</v>
       </c>
       <c r="H16" t="n">
-        <v>2.154403733254294</v>
+        <v>2.154403733254295</v>
       </c>
       <c r="I16" t="n">
-        <v>7.287083384054399</v>
+        <v>7.287083384054402</v>
       </c>
       <c r="J16" t="n">
-        <v>17.13169512629717</v>
+        <v>17.13169512629718</v>
       </c>
       <c r="K16" t="n">
-        <v>28.15263774129842</v>
+        <v>28.15263774129843</v>
       </c>
       <c r="L16" t="n">
-        <v>36.02568369492915</v>
+        <v>36.02568369492916</v>
       </c>
       <c r="M16" t="n">
-        <v>37.98403228272368</v>
+        <v>37.9840322827237</v>
       </c>
       <c r="N16" t="n">
-        <v>37.08085689352713</v>
+        <v>37.08085689352714</v>
       </c>
       <c r="O16" t="n">
-        <v>34.25017305177684</v>
+        <v>34.25017305177686</v>
       </c>
       <c r="P16" t="n">
-        <v>29.30693994602771</v>
+        <v>29.30693994602772</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.2906061216823</v>
+        <v>20.29060612168231</v>
       </c>
       <c r="R16" t="n">
         <v>10.8953792072349</v>
       </c>
       <c r="S16" t="n">
-        <v>4.222895661194762</v>
+        <v>4.222895661194764</v>
       </c>
       <c r="T16" t="n">
-        <v>1.035347397371694</v>
+        <v>1.035347397371695</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01321720081751101</v>
+        <v>0.01321720081751102</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5402005024242347</v>
+        <v>0.5402005024242349</v>
       </c>
       <c r="H17" t="n">
-        <v>5.532328395452195</v>
+        <v>5.532328395452198</v>
       </c>
       <c r="I17" t="n">
-        <v>20.82607986971033</v>
+        <v>20.82607986971034</v>
       </c>
       <c r="J17" t="n">
-        <v>45.84884239262893</v>
+        <v>45.84884239262895</v>
       </c>
       <c r="K17" t="n">
-        <v>68.7155296602468</v>
+        <v>68.71552966024683</v>
       </c>
       <c r="L17" t="n">
-        <v>85.24769078631249</v>
+        <v>85.24769078631253</v>
       </c>
       <c r="M17" t="n">
-        <v>94.85448147129948</v>
+        <v>94.85448147129951</v>
       </c>
       <c r="N17" t="n">
-        <v>96.38932614881234</v>
+        <v>96.38932614881237</v>
       </c>
       <c r="O17" t="n">
-        <v>91.01770740283135</v>
+        <v>91.01770740283139</v>
       </c>
       <c r="P17" t="n">
-        <v>77.68150749923304</v>
+        <v>77.68150749923308</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.33557700616512</v>
+        <v>58.33557700616514</v>
       </c>
       <c r="R17" t="n">
-        <v>33.93336981040636</v>
+        <v>33.93336981040638</v>
       </c>
       <c r="S17" t="n">
-        <v>12.30981894899226</v>
+        <v>12.30981894899227</v>
       </c>
       <c r="T17" t="n">
-        <v>2.364727699362088</v>
+        <v>2.36472769936209</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04321604019393877</v>
+        <v>0.04321604019393879</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2890327499527405</v>
+        <v>0.2890327499527406</v>
       </c>
       <c r="H18" t="n">
-        <v>2.791447874543573</v>
+        <v>2.791447874543575</v>
       </c>
       <c r="I18" t="n">
-        <v>9.951346873372866</v>
+        <v>9.95134687337287</v>
       </c>
       <c r="J18" t="n">
-        <v>27.30725643303502</v>
+        <v>27.30725643303503</v>
       </c>
       <c r="K18" t="n">
-        <v>46.67245067986863</v>
+        <v>46.67245067986865</v>
       </c>
       <c r="L18" t="n">
-        <v>62.75686967723869</v>
+        <v>62.75686967723872</v>
       </c>
       <c r="M18" t="n">
-        <v>73.23430686302551</v>
+        <v>73.23430686302555</v>
       </c>
       <c r="N18" t="n">
-        <v>75.1726010502086</v>
+        <v>75.17260105020863</v>
       </c>
       <c r="O18" t="n">
-        <v>68.76824380125576</v>
+        <v>68.76824380125579</v>
       </c>
       <c r="P18" t="n">
-        <v>55.19257836597552</v>
+        <v>55.19257836597554</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.89477699396738</v>
+        <v>36.89477699396739</v>
       </c>
       <c r="R18" t="n">
-        <v>17.94538424706577</v>
+        <v>17.94538424706578</v>
       </c>
       <c r="S18" t="n">
-        <v>5.368656561622172</v>
+        <v>5.368656561622175</v>
       </c>
       <c r="T18" t="n">
         <v>1.165004812309511</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01901531249689083</v>
+        <v>0.01901531249689084</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2423153483210349</v>
+        <v>0.242315348321035</v>
       </c>
       <c r="H19" t="n">
-        <v>2.154403733254294</v>
+        <v>2.154403733254295</v>
       </c>
       <c r="I19" t="n">
-        <v>7.287083384054399</v>
+        <v>7.287083384054402</v>
       </c>
       <c r="J19" t="n">
-        <v>17.13169512629717</v>
+        <v>17.13169512629718</v>
       </c>
       <c r="K19" t="n">
-        <v>28.15263774129842</v>
+        <v>28.15263774129843</v>
       </c>
       <c r="L19" t="n">
-        <v>36.02568369492915</v>
+        <v>36.02568369492916</v>
       </c>
       <c r="M19" t="n">
-        <v>37.98403228272368</v>
+        <v>37.9840322827237</v>
       </c>
       <c r="N19" t="n">
-        <v>37.08085689352713</v>
+        <v>37.08085689352714</v>
       </c>
       <c r="O19" t="n">
-        <v>34.25017305177684</v>
+        <v>34.25017305177686</v>
       </c>
       <c r="P19" t="n">
-        <v>29.30693994602771</v>
+        <v>29.30693994602772</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.2906061216823</v>
+        <v>20.29060612168231</v>
       </c>
       <c r="R19" t="n">
         <v>10.8953792072349</v>
       </c>
       <c r="S19" t="n">
-        <v>4.222895661194762</v>
+        <v>4.222895661194764</v>
       </c>
       <c r="T19" t="n">
-        <v>1.035347397371694</v>
+        <v>1.035347397371695</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01321720081751101</v>
+        <v>0.01321720081751102</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5402005024242347</v>
+        <v>0.5402005024242349</v>
       </c>
       <c r="H20" t="n">
-        <v>5.532328395452195</v>
+        <v>5.532328395452198</v>
       </c>
       <c r="I20" t="n">
-        <v>20.82607986971033</v>
+        <v>20.82607986971034</v>
       </c>
       <c r="J20" t="n">
-        <v>45.84884239262893</v>
+        <v>45.84884239262895</v>
       </c>
       <c r="K20" t="n">
-        <v>68.7155296602468</v>
+        <v>68.71552966024683</v>
       </c>
       <c r="L20" t="n">
-        <v>85.24769078631249</v>
+        <v>85.24769078631253</v>
       </c>
       <c r="M20" t="n">
-        <v>94.85448147129948</v>
+        <v>94.85448147129951</v>
       </c>
       <c r="N20" t="n">
-        <v>96.38932614881234</v>
+        <v>96.38932614881237</v>
       </c>
       <c r="O20" t="n">
-        <v>91.01770740283135</v>
+        <v>91.01770740283139</v>
       </c>
       <c r="P20" t="n">
-        <v>77.68150749923304</v>
+        <v>77.68150749923308</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.33557700616512</v>
+        <v>58.33557700616514</v>
       </c>
       <c r="R20" t="n">
-        <v>33.93336981040636</v>
+        <v>33.93336981040638</v>
       </c>
       <c r="S20" t="n">
-        <v>12.30981894899226</v>
+        <v>12.30981894899227</v>
       </c>
       <c r="T20" t="n">
-        <v>2.364727699362088</v>
+        <v>2.36472769936209</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04321604019393877</v>
+        <v>0.04321604019393879</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2890327499527405</v>
+        <v>0.2890327499527406</v>
       </c>
       <c r="H21" t="n">
-        <v>2.791447874543573</v>
+        <v>2.791447874543575</v>
       </c>
       <c r="I21" t="n">
-        <v>9.951346873372866</v>
+        <v>9.95134687337287</v>
       </c>
       <c r="J21" t="n">
-        <v>27.30725643303502</v>
+        <v>27.30725643303503</v>
       </c>
       <c r="K21" t="n">
-        <v>46.67245067986863</v>
+        <v>46.67245067986865</v>
       </c>
       <c r="L21" t="n">
-        <v>62.75686967723869</v>
+        <v>62.75686967723872</v>
       </c>
       <c r="M21" t="n">
-        <v>73.23430686302551</v>
+        <v>73.23430686302555</v>
       </c>
       <c r="N21" t="n">
-        <v>75.1726010502086</v>
+        <v>75.17260105020863</v>
       </c>
       <c r="O21" t="n">
-        <v>68.76824380125576</v>
+        <v>68.76824380125579</v>
       </c>
       <c r="P21" t="n">
-        <v>55.19257836597552</v>
+        <v>55.19257836597554</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.89477699396738</v>
+        <v>36.89477699396739</v>
       </c>
       <c r="R21" t="n">
-        <v>17.94538424706577</v>
+        <v>17.94538424706578</v>
       </c>
       <c r="S21" t="n">
-        <v>5.368656561622172</v>
+        <v>5.368656561622175</v>
       </c>
       <c r="T21" t="n">
         <v>1.165004812309511</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01901531249689083</v>
+        <v>0.01901531249689084</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2423153483210349</v>
+        <v>0.242315348321035</v>
       </c>
       <c r="H22" t="n">
-        <v>2.154403733254294</v>
+        <v>2.154403733254295</v>
       </c>
       <c r="I22" t="n">
-        <v>7.287083384054399</v>
+        <v>7.287083384054402</v>
       </c>
       <c r="J22" t="n">
-        <v>17.13169512629717</v>
+        <v>17.13169512629718</v>
       </c>
       <c r="K22" t="n">
-        <v>28.15263774129842</v>
+        <v>28.15263774129843</v>
       </c>
       <c r="L22" t="n">
-        <v>36.02568369492915</v>
+        <v>36.02568369492916</v>
       </c>
       <c r="M22" t="n">
-        <v>37.98403228272368</v>
+        <v>37.9840322827237</v>
       </c>
       <c r="N22" t="n">
-        <v>37.08085689352713</v>
+        <v>37.08085689352714</v>
       </c>
       <c r="O22" t="n">
-        <v>34.25017305177684</v>
+        <v>34.25017305177686</v>
       </c>
       <c r="P22" t="n">
-        <v>29.30693994602771</v>
+        <v>29.30693994602772</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.2906061216823</v>
+        <v>20.29060612168231</v>
       </c>
       <c r="R22" t="n">
         <v>10.8953792072349</v>
       </c>
       <c r="S22" t="n">
-        <v>4.222895661194762</v>
+        <v>4.222895661194764</v>
       </c>
       <c r="T22" t="n">
-        <v>1.035347397371694</v>
+        <v>1.035347397371695</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01321720081751101</v>
+        <v>0.01321720081751102</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5402005024242347</v>
+        <v>0.5402005024242349</v>
       </c>
       <c r="H23" t="n">
-        <v>5.532328395452195</v>
+        <v>5.532328395452198</v>
       </c>
       <c r="I23" t="n">
-        <v>20.82607986971033</v>
+        <v>20.82607986971034</v>
       </c>
       <c r="J23" t="n">
-        <v>45.84884239262893</v>
+        <v>45.84884239262895</v>
       </c>
       <c r="K23" t="n">
-        <v>68.7155296602468</v>
+        <v>68.71552966024683</v>
       </c>
       <c r="L23" t="n">
-        <v>85.24769078631249</v>
+        <v>85.24769078631253</v>
       </c>
       <c r="M23" t="n">
-        <v>94.85448147129948</v>
+        <v>94.85448147129951</v>
       </c>
       <c r="N23" t="n">
-        <v>96.38932614881234</v>
+        <v>96.38932614881237</v>
       </c>
       <c r="O23" t="n">
-        <v>91.01770740283135</v>
+        <v>91.01770740283139</v>
       </c>
       <c r="P23" t="n">
-        <v>77.68150749923304</v>
+        <v>77.68150749923308</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.33557700616512</v>
+        <v>58.33557700616514</v>
       </c>
       <c r="R23" t="n">
-        <v>33.93336981040636</v>
+        <v>33.93336981040638</v>
       </c>
       <c r="S23" t="n">
-        <v>12.30981894899226</v>
+        <v>12.30981894899227</v>
       </c>
       <c r="T23" t="n">
-        <v>2.364727699362088</v>
+        <v>2.36472769936209</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04321604019393877</v>
+        <v>0.04321604019393879</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2890327499527405</v>
+        <v>0.2890327499527406</v>
       </c>
       <c r="H24" t="n">
-        <v>2.791447874543573</v>
+        <v>2.791447874543575</v>
       </c>
       <c r="I24" t="n">
-        <v>9.951346873372866</v>
+        <v>9.95134687337287</v>
       </c>
       <c r="J24" t="n">
-        <v>27.30725643303502</v>
+        <v>27.30725643303503</v>
       </c>
       <c r="K24" t="n">
-        <v>46.67245067986863</v>
+        <v>46.67245067986865</v>
       </c>
       <c r="L24" t="n">
-        <v>62.75686967723869</v>
+        <v>62.75686967723872</v>
       </c>
       <c r="M24" t="n">
-        <v>73.23430686302551</v>
+        <v>73.23430686302555</v>
       </c>
       <c r="N24" t="n">
-        <v>75.1726010502086</v>
+        <v>75.17260105020863</v>
       </c>
       <c r="O24" t="n">
-        <v>68.76824380125576</v>
+        <v>68.76824380125579</v>
       </c>
       <c r="P24" t="n">
-        <v>55.19257836597552</v>
+        <v>55.19257836597554</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.89477699396738</v>
+        <v>36.89477699396739</v>
       </c>
       <c r="R24" t="n">
-        <v>17.94538424706577</v>
+        <v>17.94538424706578</v>
       </c>
       <c r="S24" t="n">
-        <v>5.368656561622172</v>
+        <v>5.368656561622175</v>
       </c>
       <c r="T24" t="n">
         <v>1.165004812309511</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01901531249689083</v>
+        <v>0.01901531249689084</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2423153483210349</v>
+        <v>0.242315348321035</v>
       </c>
       <c r="H25" t="n">
-        <v>2.154403733254294</v>
+        <v>2.154403733254295</v>
       </c>
       <c r="I25" t="n">
-        <v>7.287083384054399</v>
+        <v>7.287083384054402</v>
       </c>
       <c r="J25" t="n">
-        <v>17.13169512629717</v>
+        <v>17.13169512629718</v>
       </c>
       <c r="K25" t="n">
-        <v>28.15263774129842</v>
+        <v>28.15263774129843</v>
       </c>
       <c r="L25" t="n">
-        <v>36.02568369492915</v>
+        <v>36.02568369492916</v>
       </c>
       <c r="M25" t="n">
-        <v>37.98403228272368</v>
+        <v>37.9840322827237</v>
       </c>
       <c r="N25" t="n">
-        <v>37.08085689352713</v>
+        <v>37.08085689352714</v>
       </c>
       <c r="O25" t="n">
-        <v>34.25017305177684</v>
+        <v>34.25017305177686</v>
       </c>
       <c r="P25" t="n">
-        <v>29.30693994602771</v>
+        <v>29.30693994602772</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.2906061216823</v>
+        <v>20.29060612168231</v>
       </c>
       <c r="R25" t="n">
         <v>10.8953792072349</v>
       </c>
       <c r="S25" t="n">
-        <v>4.222895661194762</v>
+        <v>4.222895661194764</v>
       </c>
       <c r="T25" t="n">
-        <v>1.035347397371694</v>
+        <v>1.035347397371695</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01321720081751101</v>
+        <v>0.01321720081751102</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5402005024242347</v>
+        <v>0.5402005024242349</v>
       </c>
       <c r="H26" t="n">
-        <v>5.532328395452195</v>
+        <v>5.532328395452198</v>
       </c>
       <c r="I26" t="n">
-        <v>20.82607986971033</v>
+        <v>20.82607986971034</v>
       </c>
       <c r="J26" t="n">
-        <v>45.84884239262893</v>
+        <v>45.84884239262895</v>
       </c>
       <c r="K26" t="n">
-        <v>68.7155296602468</v>
+        <v>68.71552966024683</v>
       </c>
       <c r="L26" t="n">
-        <v>85.24769078631249</v>
+        <v>85.24769078631253</v>
       </c>
       <c r="M26" t="n">
-        <v>94.85448147129948</v>
+        <v>94.85448147129951</v>
       </c>
       <c r="N26" t="n">
-        <v>96.38932614881234</v>
+        <v>96.38932614881237</v>
       </c>
       <c r="O26" t="n">
-        <v>91.01770740283135</v>
+        <v>91.01770740283139</v>
       </c>
       <c r="P26" t="n">
-        <v>77.68150749923304</v>
+        <v>77.68150749923308</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.33557700616512</v>
+        <v>58.33557700616514</v>
       </c>
       <c r="R26" t="n">
-        <v>33.93336981040636</v>
+        <v>33.93336981040638</v>
       </c>
       <c r="S26" t="n">
-        <v>12.30981894899226</v>
+        <v>12.30981894899227</v>
       </c>
       <c r="T26" t="n">
-        <v>2.364727699362088</v>
+        <v>2.36472769936209</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04321604019393877</v>
+        <v>0.04321604019393879</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2890327499527405</v>
+        <v>0.2890327499527406</v>
       </c>
       <c r="H27" t="n">
-        <v>2.791447874543573</v>
+        <v>2.791447874543575</v>
       </c>
       <c r="I27" t="n">
-        <v>9.951346873372866</v>
+        <v>9.95134687337287</v>
       </c>
       <c r="J27" t="n">
-        <v>27.30725643303502</v>
+        <v>27.30725643303503</v>
       </c>
       <c r="K27" t="n">
-        <v>46.67245067986863</v>
+        <v>46.67245067986865</v>
       </c>
       <c r="L27" t="n">
-        <v>62.75686967723869</v>
+        <v>62.75686967723872</v>
       </c>
       <c r="M27" t="n">
-        <v>73.23430686302551</v>
+        <v>73.23430686302555</v>
       </c>
       <c r="N27" t="n">
-        <v>75.1726010502086</v>
+        <v>75.17260105020863</v>
       </c>
       <c r="O27" t="n">
-        <v>68.76824380125576</v>
+        <v>68.76824380125579</v>
       </c>
       <c r="P27" t="n">
-        <v>55.19257836597552</v>
+        <v>55.19257836597554</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.89477699396738</v>
+        <v>36.89477699396739</v>
       </c>
       <c r="R27" t="n">
-        <v>17.94538424706577</v>
+        <v>17.94538424706578</v>
       </c>
       <c r="S27" t="n">
-        <v>5.368656561622172</v>
+        <v>5.368656561622175</v>
       </c>
       <c r="T27" t="n">
         <v>1.165004812309511</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01901531249689083</v>
+        <v>0.01901531249689084</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2423153483210349</v>
+        <v>0.242315348321035</v>
       </c>
       <c r="H28" t="n">
-        <v>2.154403733254294</v>
+        <v>2.154403733254295</v>
       </c>
       <c r="I28" t="n">
-        <v>7.287083384054399</v>
+        <v>7.287083384054402</v>
       </c>
       <c r="J28" t="n">
-        <v>17.13169512629717</v>
+        <v>17.13169512629718</v>
       </c>
       <c r="K28" t="n">
-        <v>28.15263774129842</v>
+        <v>28.15263774129843</v>
       </c>
       <c r="L28" t="n">
-        <v>36.02568369492915</v>
+        <v>36.02568369492916</v>
       </c>
       <c r="M28" t="n">
-        <v>37.98403228272368</v>
+        <v>37.9840322827237</v>
       </c>
       <c r="N28" t="n">
-        <v>37.08085689352713</v>
+        <v>37.08085689352714</v>
       </c>
       <c r="O28" t="n">
-        <v>34.25017305177684</v>
+        <v>34.25017305177686</v>
       </c>
       <c r="P28" t="n">
-        <v>29.30693994602771</v>
+        <v>29.30693994602772</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.2906061216823</v>
+        <v>20.29060612168231</v>
       </c>
       <c r="R28" t="n">
         <v>10.8953792072349</v>
       </c>
       <c r="S28" t="n">
-        <v>4.222895661194762</v>
+        <v>4.222895661194764</v>
       </c>
       <c r="T28" t="n">
-        <v>1.035347397371694</v>
+        <v>1.035347397371695</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01321720081751101</v>
+        <v>0.01321720081751102</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5402005024242347</v>
+        <v>0.5402005024242349</v>
       </c>
       <c r="H29" t="n">
-        <v>5.532328395452195</v>
+        <v>5.532328395452198</v>
       </c>
       <c r="I29" t="n">
-        <v>20.82607986971033</v>
+        <v>20.82607986971034</v>
       </c>
       <c r="J29" t="n">
-        <v>45.84884239262893</v>
+        <v>45.84884239262895</v>
       </c>
       <c r="K29" t="n">
-        <v>68.7155296602468</v>
+        <v>68.71552966024683</v>
       </c>
       <c r="L29" t="n">
-        <v>85.24769078631249</v>
+        <v>85.24769078631253</v>
       </c>
       <c r="M29" t="n">
-        <v>94.85448147129948</v>
+        <v>94.85448147129951</v>
       </c>
       <c r="N29" t="n">
-        <v>96.38932614881234</v>
+        <v>96.38932614881237</v>
       </c>
       <c r="O29" t="n">
-        <v>91.01770740283135</v>
+        <v>91.01770740283139</v>
       </c>
       <c r="P29" t="n">
-        <v>77.68150749923304</v>
+        <v>77.68150749923308</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.33557700616512</v>
+        <v>58.33557700616514</v>
       </c>
       <c r="R29" t="n">
-        <v>33.93336981040636</v>
+        <v>33.93336981040638</v>
       </c>
       <c r="S29" t="n">
-        <v>12.30981894899226</v>
+        <v>12.30981894899227</v>
       </c>
       <c r="T29" t="n">
-        <v>2.364727699362088</v>
+        <v>2.36472769936209</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04321604019393877</v>
+        <v>0.04321604019393879</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2890327499527405</v>
+        <v>0.2890327499527406</v>
       </c>
       <c r="H30" t="n">
-        <v>2.791447874543573</v>
+        <v>2.791447874543575</v>
       </c>
       <c r="I30" t="n">
-        <v>9.951346873372866</v>
+        <v>9.95134687337287</v>
       </c>
       <c r="J30" t="n">
-        <v>27.30725643303502</v>
+        <v>27.30725643303503</v>
       </c>
       <c r="K30" t="n">
-        <v>46.67245067986863</v>
+        <v>46.67245067986865</v>
       </c>
       <c r="L30" t="n">
-        <v>62.75686967723869</v>
+        <v>62.75686967723872</v>
       </c>
       <c r="M30" t="n">
-        <v>73.23430686302551</v>
+        <v>73.23430686302555</v>
       </c>
       <c r="N30" t="n">
-        <v>75.1726010502086</v>
+        <v>75.17260105020863</v>
       </c>
       <c r="O30" t="n">
-        <v>68.76824380125576</v>
+        <v>68.76824380125579</v>
       </c>
       <c r="P30" t="n">
-        <v>55.19257836597552</v>
+        <v>55.19257836597554</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.89477699396738</v>
+        <v>36.89477699396739</v>
       </c>
       <c r="R30" t="n">
-        <v>17.94538424706577</v>
+        <v>17.94538424706578</v>
       </c>
       <c r="S30" t="n">
-        <v>5.368656561622172</v>
+        <v>5.368656561622175</v>
       </c>
       <c r="T30" t="n">
         <v>1.165004812309511</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01901531249689083</v>
+        <v>0.01901531249689084</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2423153483210349</v>
+        <v>0.242315348321035</v>
       </c>
       <c r="H31" t="n">
-        <v>2.154403733254294</v>
+        <v>2.154403733254295</v>
       </c>
       <c r="I31" t="n">
-        <v>7.287083384054399</v>
+        <v>7.287083384054402</v>
       </c>
       <c r="J31" t="n">
-        <v>17.13169512629717</v>
+        <v>17.13169512629718</v>
       </c>
       <c r="K31" t="n">
-        <v>28.15263774129842</v>
+        <v>28.15263774129843</v>
       </c>
       <c r="L31" t="n">
-        <v>36.02568369492915</v>
+        <v>36.02568369492916</v>
       </c>
       <c r="M31" t="n">
-        <v>37.98403228272368</v>
+        <v>37.9840322827237</v>
       </c>
       <c r="N31" t="n">
-        <v>37.08085689352713</v>
+        <v>37.08085689352714</v>
       </c>
       <c r="O31" t="n">
-        <v>34.25017305177684</v>
+        <v>34.25017305177686</v>
       </c>
       <c r="P31" t="n">
-        <v>29.30693994602771</v>
+        <v>29.30693994602772</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.2906061216823</v>
+        <v>20.29060612168231</v>
       </c>
       <c r="R31" t="n">
         <v>10.8953792072349</v>
       </c>
       <c r="S31" t="n">
-        <v>4.222895661194762</v>
+        <v>4.222895661194764</v>
       </c>
       <c r="T31" t="n">
-        <v>1.035347397371694</v>
+        <v>1.035347397371695</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01321720081751101</v>
+        <v>0.01321720081751102</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5402005024242347</v>
+        <v>0.5402005024242349</v>
       </c>
       <c r="H32" t="n">
-        <v>5.532328395452195</v>
+        <v>5.532328395452198</v>
       </c>
       <c r="I32" t="n">
-        <v>20.82607986971033</v>
+        <v>20.82607986971034</v>
       </c>
       <c r="J32" t="n">
-        <v>45.84884239262893</v>
+        <v>45.84884239262895</v>
       </c>
       <c r="K32" t="n">
-        <v>68.7155296602468</v>
+        <v>68.71552966024683</v>
       </c>
       <c r="L32" t="n">
-        <v>85.24769078631249</v>
+        <v>85.24769078631253</v>
       </c>
       <c r="M32" t="n">
-        <v>94.85448147129948</v>
+        <v>94.85448147129951</v>
       </c>
       <c r="N32" t="n">
-        <v>96.38932614881234</v>
+        <v>96.38932614881237</v>
       </c>
       <c r="O32" t="n">
-        <v>91.01770740283135</v>
+        <v>91.01770740283139</v>
       </c>
       <c r="P32" t="n">
-        <v>77.68150749923304</v>
+        <v>77.68150749923308</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.33557700616512</v>
+        <v>58.33557700616514</v>
       </c>
       <c r="R32" t="n">
-        <v>33.93336981040636</v>
+        <v>33.93336981040638</v>
       </c>
       <c r="S32" t="n">
-        <v>12.30981894899226</v>
+        <v>12.30981894899227</v>
       </c>
       <c r="T32" t="n">
-        <v>2.364727699362088</v>
+        <v>2.36472769936209</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04321604019393877</v>
+        <v>0.04321604019393879</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2890327499527405</v>
+        <v>0.2890327499527406</v>
       </c>
       <c r="H33" t="n">
-        <v>2.791447874543573</v>
+        <v>2.791447874543575</v>
       </c>
       <c r="I33" t="n">
-        <v>9.951346873372866</v>
+        <v>9.95134687337287</v>
       </c>
       <c r="J33" t="n">
-        <v>27.30725643303502</v>
+        <v>27.30725643303503</v>
       </c>
       <c r="K33" t="n">
-        <v>46.67245067986863</v>
+        <v>46.67245067986865</v>
       </c>
       <c r="L33" t="n">
-        <v>62.75686967723869</v>
+        <v>62.75686967723872</v>
       </c>
       <c r="M33" t="n">
-        <v>73.23430686302551</v>
+        <v>73.23430686302555</v>
       </c>
       <c r="N33" t="n">
-        <v>75.1726010502086</v>
+        <v>75.17260105020863</v>
       </c>
       <c r="O33" t="n">
-        <v>68.76824380125576</v>
+        <v>68.76824380125579</v>
       </c>
       <c r="P33" t="n">
-        <v>55.19257836597552</v>
+        <v>55.19257836597554</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.89477699396738</v>
+        <v>36.89477699396739</v>
       </c>
       <c r="R33" t="n">
-        <v>17.94538424706577</v>
+        <v>17.94538424706578</v>
       </c>
       <c r="S33" t="n">
-        <v>5.368656561622172</v>
+        <v>5.368656561622175</v>
       </c>
       <c r="T33" t="n">
         <v>1.165004812309511</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01901531249689083</v>
+        <v>0.01901531249689084</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2423153483210349</v>
+        <v>0.242315348321035</v>
       </c>
       <c r="H34" t="n">
-        <v>2.154403733254294</v>
+        <v>2.154403733254295</v>
       </c>
       <c r="I34" t="n">
-        <v>7.287083384054399</v>
+        <v>7.287083384054402</v>
       </c>
       <c r="J34" t="n">
-        <v>17.13169512629717</v>
+        <v>17.13169512629718</v>
       </c>
       <c r="K34" t="n">
-        <v>28.15263774129842</v>
+        <v>28.15263774129843</v>
       </c>
       <c r="L34" t="n">
-        <v>36.02568369492915</v>
+        <v>36.02568369492916</v>
       </c>
       <c r="M34" t="n">
-        <v>37.98403228272368</v>
+        <v>37.9840322827237</v>
       </c>
       <c r="N34" t="n">
-        <v>37.08085689352713</v>
+        <v>37.08085689352714</v>
       </c>
       <c r="O34" t="n">
-        <v>34.25017305177684</v>
+        <v>34.25017305177686</v>
       </c>
       <c r="P34" t="n">
-        <v>29.30693994602771</v>
+        <v>29.30693994602772</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.2906061216823</v>
+        <v>20.29060612168231</v>
       </c>
       <c r="R34" t="n">
         <v>10.8953792072349</v>
       </c>
       <c r="S34" t="n">
-        <v>4.222895661194762</v>
+        <v>4.222895661194764</v>
       </c>
       <c r="T34" t="n">
-        <v>1.035347397371694</v>
+        <v>1.035347397371695</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01321720081751101</v>
+        <v>0.01321720081751102</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5402005024242347</v>
+        <v>0.5402005024242349</v>
       </c>
       <c r="H35" t="n">
-        <v>5.532328395452195</v>
+        <v>5.532328395452198</v>
       </c>
       <c r="I35" t="n">
-        <v>20.82607986971033</v>
+        <v>20.82607986971034</v>
       </c>
       <c r="J35" t="n">
-        <v>45.84884239262893</v>
+        <v>45.84884239262895</v>
       </c>
       <c r="K35" t="n">
-        <v>68.7155296602468</v>
+        <v>68.71552966024683</v>
       </c>
       <c r="L35" t="n">
-        <v>85.24769078631249</v>
+        <v>85.24769078631253</v>
       </c>
       <c r="M35" t="n">
-        <v>94.85448147129948</v>
+        <v>94.85448147129951</v>
       </c>
       <c r="N35" t="n">
-        <v>96.38932614881234</v>
+        <v>96.38932614881237</v>
       </c>
       <c r="O35" t="n">
-        <v>91.01770740283135</v>
+        <v>91.01770740283139</v>
       </c>
       <c r="P35" t="n">
-        <v>77.68150749923304</v>
+        <v>77.68150749923308</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.33557700616512</v>
+        <v>58.33557700616514</v>
       </c>
       <c r="R35" t="n">
-        <v>33.93336981040636</v>
+        <v>33.93336981040638</v>
       </c>
       <c r="S35" t="n">
-        <v>12.30981894899226</v>
+        <v>12.30981894899227</v>
       </c>
       <c r="T35" t="n">
-        <v>2.364727699362088</v>
+        <v>2.36472769936209</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04321604019393877</v>
+        <v>0.04321604019393879</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2890327499527405</v>
+        <v>0.2890327499527406</v>
       </c>
       <c r="H36" t="n">
-        <v>2.791447874543573</v>
+        <v>2.791447874543575</v>
       </c>
       <c r="I36" t="n">
-        <v>9.951346873372866</v>
+        <v>9.95134687337287</v>
       </c>
       <c r="J36" t="n">
-        <v>27.30725643303502</v>
+        <v>27.30725643303503</v>
       </c>
       <c r="K36" t="n">
-        <v>46.67245067986863</v>
+        <v>46.67245067986865</v>
       </c>
       <c r="L36" t="n">
-        <v>62.75686967723869</v>
+        <v>62.75686967723872</v>
       </c>
       <c r="M36" t="n">
-        <v>73.23430686302551</v>
+        <v>73.23430686302555</v>
       </c>
       <c r="N36" t="n">
-        <v>75.1726010502086</v>
+        <v>75.17260105020863</v>
       </c>
       <c r="O36" t="n">
-        <v>68.76824380125576</v>
+        <v>68.76824380125579</v>
       </c>
       <c r="P36" t="n">
-        <v>55.19257836597552</v>
+        <v>55.19257836597554</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.89477699396738</v>
+        <v>36.89477699396739</v>
       </c>
       <c r="R36" t="n">
-        <v>17.94538424706577</v>
+        <v>17.94538424706578</v>
       </c>
       <c r="S36" t="n">
-        <v>5.368656561622172</v>
+        <v>5.368656561622175</v>
       </c>
       <c r="T36" t="n">
         <v>1.165004812309511</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01901531249689083</v>
+        <v>0.01901531249689084</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2423153483210349</v>
+        <v>0.242315348321035</v>
       </c>
       <c r="H37" t="n">
-        <v>2.154403733254294</v>
+        <v>2.154403733254295</v>
       </c>
       <c r="I37" t="n">
-        <v>7.287083384054399</v>
+        <v>7.287083384054402</v>
       </c>
       <c r="J37" t="n">
-        <v>17.13169512629717</v>
+        <v>17.13169512629718</v>
       </c>
       <c r="K37" t="n">
-        <v>28.15263774129842</v>
+        <v>28.15263774129843</v>
       </c>
       <c r="L37" t="n">
-        <v>36.02568369492915</v>
+        <v>36.02568369492916</v>
       </c>
       <c r="M37" t="n">
-        <v>37.98403228272368</v>
+        <v>37.9840322827237</v>
       </c>
       <c r="N37" t="n">
-        <v>37.08085689352713</v>
+        <v>37.08085689352714</v>
       </c>
       <c r="O37" t="n">
-        <v>34.25017305177684</v>
+        <v>34.25017305177686</v>
       </c>
       <c r="P37" t="n">
-        <v>29.30693994602771</v>
+        <v>29.30693994602772</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.2906061216823</v>
+        <v>20.29060612168231</v>
       </c>
       <c r="R37" t="n">
         <v>10.8953792072349</v>
       </c>
       <c r="S37" t="n">
-        <v>4.222895661194762</v>
+        <v>4.222895661194764</v>
       </c>
       <c r="T37" t="n">
-        <v>1.035347397371694</v>
+        <v>1.035347397371695</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01321720081751101</v>
+        <v>0.01321720081751102</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5402005024242347</v>
+        <v>0.5402005024242349</v>
       </c>
       <c r="H38" t="n">
-        <v>5.532328395452195</v>
+        <v>5.532328395452198</v>
       </c>
       <c r="I38" t="n">
-        <v>20.82607986971033</v>
+        <v>20.82607986971034</v>
       </c>
       <c r="J38" t="n">
-        <v>45.84884239262893</v>
+        <v>45.84884239262895</v>
       </c>
       <c r="K38" t="n">
-        <v>68.7155296602468</v>
+        <v>68.71552966024683</v>
       </c>
       <c r="L38" t="n">
-        <v>85.24769078631249</v>
+        <v>85.24769078631253</v>
       </c>
       <c r="M38" t="n">
-        <v>94.85448147129948</v>
+        <v>94.85448147129951</v>
       </c>
       <c r="N38" t="n">
-        <v>96.38932614881234</v>
+        <v>96.38932614881237</v>
       </c>
       <c r="O38" t="n">
-        <v>91.01770740283135</v>
+        <v>91.01770740283139</v>
       </c>
       <c r="P38" t="n">
-        <v>77.68150749923304</v>
+        <v>77.68150749923308</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.33557700616512</v>
+        <v>58.33557700616514</v>
       </c>
       <c r="R38" t="n">
-        <v>33.93336981040636</v>
+        <v>33.93336981040638</v>
       </c>
       <c r="S38" t="n">
-        <v>12.30981894899226</v>
+        <v>12.30981894899227</v>
       </c>
       <c r="T38" t="n">
-        <v>2.364727699362088</v>
+        <v>2.36472769936209</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04321604019393877</v>
+        <v>0.04321604019393879</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2890327499527405</v>
+        <v>0.2890327499527406</v>
       </c>
       <c r="H39" t="n">
-        <v>2.791447874543573</v>
+        <v>2.791447874543575</v>
       </c>
       <c r="I39" t="n">
-        <v>9.951346873372866</v>
+        <v>9.95134687337287</v>
       </c>
       <c r="J39" t="n">
-        <v>27.30725643303502</v>
+        <v>27.30725643303503</v>
       </c>
       <c r="K39" t="n">
-        <v>46.67245067986863</v>
+        <v>46.67245067986865</v>
       </c>
       <c r="L39" t="n">
-        <v>62.75686967723869</v>
+        <v>62.75686967723872</v>
       </c>
       <c r="M39" t="n">
-        <v>73.23430686302551</v>
+        <v>73.23430686302555</v>
       </c>
       <c r="N39" t="n">
-        <v>75.1726010502086</v>
+        <v>75.17260105020863</v>
       </c>
       <c r="O39" t="n">
-        <v>68.76824380125576</v>
+        <v>68.76824380125579</v>
       </c>
       <c r="P39" t="n">
-        <v>55.19257836597552</v>
+        <v>55.19257836597554</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.89477699396738</v>
+        <v>36.89477699396739</v>
       </c>
       <c r="R39" t="n">
-        <v>17.94538424706577</v>
+        <v>17.94538424706578</v>
       </c>
       <c r="S39" t="n">
-        <v>5.368656561622172</v>
+        <v>5.368656561622175</v>
       </c>
       <c r="T39" t="n">
         <v>1.165004812309511</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01901531249689083</v>
+        <v>0.01901531249689084</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2423153483210349</v>
+        <v>0.242315348321035</v>
       </c>
       <c r="H40" t="n">
-        <v>2.154403733254294</v>
+        <v>2.154403733254295</v>
       </c>
       <c r="I40" t="n">
-        <v>7.287083384054399</v>
+        <v>7.287083384054402</v>
       </c>
       <c r="J40" t="n">
-        <v>17.13169512629717</v>
+        <v>17.13169512629718</v>
       </c>
       <c r="K40" t="n">
-        <v>28.15263774129842</v>
+        <v>28.15263774129843</v>
       </c>
       <c r="L40" t="n">
-        <v>36.02568369492915</v>
+        <v>36.02568369492916</v>
       </c>
       <c r="M40" t="n">
-        <v>37.98403228272368</v>
+        <v>37.9840322827237</v>
       </c>
       <c r="N40" t="n">
-        <v>37.08085689352713</v>
+        <v>37.08085689352714</v>
       </c>
       <c r="O40" t="n">
-        <v>34.25017305177684</v>
+        <v>34.25017305177686</v>
       </c>
       <c r="P40" t="n">
-        <v>29.30693994602771</v>
+        <v>29.30693994602772</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.2906061216823</v>
+        <v>20.29060612168231</v>
       </c>
       <c r="R40" t="n">
         <v>10.8953792072349</v>
       </c>
       <c r="S40" t="n">
-        <v>4.222895661194762</v>
+        <v>4.222895661194764</v>
       </c>
       <c r="T40" t="n">
-        <v>1.035347397371694</v>
+        <v>1.035347397371695</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01321720081751101</v>
+        <v>0.01321720081751102</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5402005024242347</v>
+        <v>0.5402005024242349</v>
       </c>
       <c r="H41" t="n">
-        <v>5.532328395452195</v>
+        <v>5.532328395452198</v>
       </c>
       <c r="I41" t="n">
-        <v>20.82607986971033</v>
+        <v>20.82607986971034</v>
       </c>
       <c r="J41" t="n">
-        <v>45.84884239262893</v>
+        <v>45.84884239262895</v>
       </c>
       <c r="K41" t="n">
-        <v>68.7155296602468</v>
+        <v>68.71552966024683</v>
       </c>
       <c r="L41" t="n">
-        <v>85.24769078631249</v>
+        <v>85.24769078631253</v>
       </c>
       <c r="M41" t="n">
-        <v>94.85448147129948</v>
+        <v>94.85448147129951</v>
       </c>
       <c r="N41" t="n">
-        <v>96.38932614881234</v>
+        <v>96.38932614881237</v>
       </c>
       <c r="O41" t="n">
-        <v>91.01770740283135</v>
+        <v>91.01770740283139</v>
       </c>
       <c r="P41" t="n">
-        <v>77.68150749923304</v>
+        <v>77.68150749923308</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.33557700616512</v>
+        <v>58.33557700616514</v>
       </c>
       <c r="R41" t="n">
-        <v>33.93336981040636</v>
+        <v>33.93336981040638</v>
       </c>
       <c r="S41" t="n">
-        <v>12.30981894899226</v>
+        <v>12.30981894899227</v>
       </c>
       <c r="T41" t="n">
-        <v>2.364727699362088</v>
+        <v>2.36472769936209</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04321604019393877</v>
+        <v>0.04321604019393879</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2890327499527405</v>
+        <v>0.2890327499527406</v>
       </c>
       <c r="H42" t="n">
-        <v>2.791447874543573</v>
+        <v>2.791447874543575</v>
       </c>
       <c r="I42" t="n">
-        <v>9.951346873372866</v>
+        <v>9.95134687337287</v>
       </c>
       <c r="J42" t="n">
-        <v>27.30725643303502</v>
+        <v>27.30725643303503</v>
       </c>
       <c r="K42" t="n">
-        <v>46.67245067986863</v>
+        <v>46.67245067986865</v>
       </c>
       <c r="L42" t="n">
-        <v>62.75686967723869</v>
+        <v>62.75686967723872</v>
       </c>
       <c r="M42" t="n">
-        <v>73.23430686302551</v>
+        <v>73.23430686302555</v>
       </c>
       <c r="N42" t="n">
-        <v>75.1726010502086</v>
+        <v>75.17260105020863</v>
       </c>
       <c r="O42" t="n">
-        <v>68.76824380125576</v>
+        <v>68.76824380125579</v>
       </c>
       <c r="P42" t="n">
-        <v>55.19257836597552</v>
+        <v>55.19257836597554</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.89477699396738</v>
+        <v>36.89477699396739</v>
       </c>
       <c r="R42" t="n">
-        <v>17.94538424706577</v>
+        <v>17.94538424706578</v>
       </c>
       <c r="S42" t="n">
-        <v>5.368656561622172</v>
+        <v>5.368656561622175</v>
       </c>
       <c r="T42" t="n">
         <v>1.165004812309511</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01901531249689083</v>
+        <v>0.01901531249689084</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2423153483210349</v>
+        <v>0.242315348321035</v>
       </c>
       <c r="H43" t="n">
-        <v>2.154403733254294</v>
+        <v>2.154403733254295</v>
       </c>
       <c r="I43" t="n">
-        <v>7.287083384054399</v>
+        <v>7.287083384054402</v>
       </c>
       <c r="J43" t="n">
-        <v>17.13169512629717</v>
+        <v>17.13169512629718</v>
       </c>
       <c r="K43" t="n">
-        <v>28.15263774129842</v>
+        <v>28.15263774129843</v>
       </c>
       <c r="L43" t="n">
-        <v>36.02568369492915</v>
+        <v>36.02568369492916</v>
       </c>
       <c r="M43" t="n">
-        <v>37.98403228272368</v>
+        <v>37.9840322827237</v>
       </c>
       <c r="N43" t="n">
-        <v>37.08085689352713</v>
+        <v>37.08085689352714</v>
       </c>
       <c r="O43" t="n">
-        <v>34.25017305177684</v>
+        <v>34.25017305177686</v>
       </c>
       <c r="P43" t="n">
-        <v>29.30693994602771</v>
+        <v>29.30693994602772</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.2906061216823</v>
+        <v>20.29060612168231</v>
       </c>
       <c r="R43" t="n">
         <v>10.8953792072349</v>
       </c>
       <c r="S43" t="n">
-        <v>4.222895661194762</v>
+        <v>4.222895661194764</v>
       </c>
       <c r="T43" t="n">
-        <v>1.035347397371694</v>
+        <v>1.035347397371695</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01321720081751101</v>
+        <v>0.01321720081751102</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5402005024242347</v>
+        <v>0.5402005024242349</v>
       </c>
       <c r="H44" t="n">
-        <v>5.532328395452195</v>
+        <v>5.532328395452198</v>
       </c>
       <c r="I44" t="n">
-        <v>20.82607986971033</v>
+        <v>20.82607986971034</v>
       </c>
       <c r="J44" t="n">
-        <v>45.84884239262893</v>
+        <v>45.84884239262895</v>
       </c>
       <c r="K44" t="n">
-        <v>68.7155296602468</v>
+        <v>68.71552966024683</v>
       </c>
       <c r="L44" t="n">
-        <v>85.24769078631249</v>
+        <v>85.24769078631253</v>
       </c>
       <c r="M44" t="n">
-        <v>94.85448147129948</v>
+        <v>94.85448147129951</v>
       </c>
       <c r="N44" t="n">
-        <v>96.38932614881234</v>
+        <v>96.38932614881237</v>
       </c>
       <c r="O44" t="n">
-        <v>91.01770740283135</v>
+        <v>91.01770740283139</v>
       </c>
       <c r="P44" t="n">
-        <v>77.68150749923304</v>
+        <v>77.68150749923308</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.33557700616512</v>
+        <v>58.33557700616514</v>
       </c>
       <c r="R44" t="n">
-        <v>33.93336981040636</v>
+        <v>33.93336981040638</v>
       </c>
       <c r="S44" t="n">
-        <v>12.30981894899226</v>
+        <v>12.30981894899227</v>
       </c>
       <c r="T44" t="n">
-        <v>2.364727699362088</v>
+        <v>2.36472769936209</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04321604019393877</v>
+        <v>0.04321604019393879</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2890327499527405</v>
+        <v>0.2890327499527406</v>
       </c>
       <c r="H45" t="n">
-        <v>2.791447874543573</v>
+        <v>2.791447874543575</v>
       </c>
       <c r="I45" t="n">
-        <v>9.951346873372866</v>
+        <v>9.95134687337287</v>
       </c>
       <c r="J45" t="n">
-        <v>27.30725643303502</v>
+        <v>27.30725643303503</v>
       </c>
       <c r="K45" t="n">
-        <v>46.67245067986863</v>
+        <v>46.67245067986865</v>
       </c>
       <c r="L45" t="n">
-        <v>62.75686967723869</v>
+        <v>62.75686967723872</v>
       </c>
       <c r="M45" t="n">
-        <v>73.23430686302551</v>
+        <v>73.23430686302555</v>
       </c>
       <c r="N45" t="n">
-        <v>75.1726010502086</v>
+        <v>75.17260105020863</v>
       </c>
       <c r="O45" t="n">
-        <v>68.76824380125576</v>
+        <v>68.76824380125579</v>
       </c>
       <c r="P45" t="n">
-        <v>55.19257836597552</v>
+        <v>55.19257836597554</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.89477699396738</v>
+        <v>36.89477699396739</v>
       </c>
       <c r="R45" t="n">
-        <v>17.94538424706577</v>
+        <v>17.94538424706578</v>
       </c>
       <c r="S45" t="n">
-        <v>5.368656561622172</v>
+        <v>5.368656561622175</v>
       </c>
       <c r="T45" t="n">
         <v>1.165004812309511</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01901531249689083</v>
+        <v>0.01901531249689084</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2423153483210349</v>
+        <v>0.242315348321035</v>
       </c>
       <c r="H46" t="n">
-        <v>2.154403733254294</v>
+        <v>2.154403733254295</v>
       </c>
       <c r="I46" t="n">
-        <v>7.287083384054399</v>
+        <v>7.287083384054402</v>
       </c>
       <c r="J46" t="n">
-        <v>17.13169512629717</v>
+        <v>17.13169512629718</v>
       </c>
       <c r="K46" t="n">
-        <v>28.15263774129842</v>
+        <v>28.15263774129843</v>
       </c>
       <c r="L46" t="n">
-        <v>36.02568369492915</v>
+        <v>36.02568369492916</v>
       </c>
       <c r="M46" t="n">
-        <v>37.98403228272368</v>
+        <v>37.9840322827237</v>
       </c>
       <c r="N46" t="n">
-        <v>37.08085689352713</v>
+        <v>37.08085689352714</v>
       </c>
       <c r="O46" t="n">
-        <v>34.25017305177684</v>
+        <v>34.25017305177686</v>
       </c>
       <c r="P46" t="n">
-        <v>29.30693994602771</v>
+        <v>29.30693994602772</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.2906061216823</v>
+        <v>20.29060612168231</v>
       </c>
       <c r="R46" t="n">
         <v>10.8953792072349</v>
       </c>
       <c r="S46" t="n">
-        <v>4.222895661194762</v>
+        <v>4.222895661194764</v>
       </c>
       <c r="T46" t="n">
-        <v>1.035347397371694</v>
+        <v>1.035347397371695</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01321720081751101</v>
+        <v>0.01321720081751102</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.18956525806652</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>289.7430993230433</v>
+        <v>289.7430993230434</v>
       </c>
       <c r="M11" t="n">
         <v>337.7609789072544</v>
@@ -35422,13 +35422,13 @@
         <v>327.5523905305997</v>
       </c>
       <c r="O11" t="n">
-        <v>92.64461387836506</v>
+        <v>262.704139779942</v>
       </c>
       <c r="P11" t="n">
-        <v>186.8999931361872</v>
+        <v>124.4251521575543</v>
       </c>
       <c r="Q11" t="n">
-        <v>62.39511966487773</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>34.77524718706019</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>187.3208941729504</v>
       </c>
       <c r="L12" t="n">
-        <v>289.5832567871041</v>
+        <v>313.3403085074589</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="N12" t="n">
         <v>338.9703834416862</v>
       </c>
       <c r="O12" t="n">
-        <v>338.9703834416862</v>
+        <v>128.808543947552</v>
       </c>
       <c r="P12" t="n">
-        <v>255.7688105225382</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>118.8929265053795</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.71120160837785</v>
+        <v>72.71120160837779</v>
       </c>
       <c r="K13" t="n">
-        <v>43.51845782463109</v>
+        <v>43.51845782463209</v>
       </c>
       <c r="L13" t="n">
-        <v>73.48681392393843</v>
+        <v>217.905165333798</v>
       </c>
       <c r="M13" t="n">
-        <v>88.18144027963226</v>
+        <v>232.5997916894918</v>
       </c>
       <c r="N13" t="n">
-        <v>235.6962279680246</v>
+        <v>91.27787655816503</v>
       </c>
       <c r="O13" t="n">
-        <v>213.2367324916075</v>
+        <v>68.81838108174792</v>
       </c>
       <c r="P13" t="n">
-        <v>35.42896184471155</v>
+        <v>35.42896184471156</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.94825765569374</v>
+        <v>84.94825765569368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.18956525806652</v>
+        <v>45.18956525806654</v>
       </c>
       <c r="K14" t="n">
-        <v>191.2391539654021</v>
+        <v>191.2391539654022</v>
       </c>
       <c r="L14" t="n">
-        <v>289.7430993230433</v>
+        <v>289.7430993230434</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>337.7609789072544</v>
       </c>
       <c r="N14" t="n">
         <v>327.5523905305997</v>
       </c>
       <c r="O14" t="n">
-        <v>262.704139779942</v>
+        <v>88.30545304914989</v>
       </c>
       <c r="P14" t="n">
-        <v>186.8999931361872</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>38.85741870515314</v>
+        <v>62.39511966487775</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>34.77524718706017</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>187.3208941729504</v>
       </c>
       <c r="L15" t="n">
-        <v>171.6064366808958</v>
+        <v>313.3403085074589</v>
       </c>
       <c r="M15" t="n">
         <v>338.9703834416862</v>
@@ -35738,13 +35738,13 @@
         <v>338.9703834416862</v>
       </c>
       <c r="O15" t="n">
-        <v>338.9703834416862</v>
+        <v>163.5837911346119</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>118.8929265053795</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>72.71120160837779</v>
       </c>
       <c r="K16" t="n">
-        <v>43.51845782463212</v>
+        <v>13.37822802346508</v>
       </c>
       <c r="L16" t="n">
-        <v>73.48681392393843</v>
+        <v>217.905165333798</v>
       </c>
       <c r="M16" t="n">
-        <v>232.5997916894918</v>
+        <v>118.3216700807993</v>
       </c>
       <c r="N16" t="n">
-        <v>235.6962279680246</v>
+        <v>91.27787655816503</v>
       </c>
       <c r="O16" t="n">
-        <v>68.8183810817479</v>
+        <v>213.2367324916075</v>
       </c>
       <c r="P16" t="n">
-        <v>35.42896184471155</v>
+        <v>35.42896184471156</v>
       </c>
       <c r="Q16" t="n">
         <v>84.94825765569368</v>
@@ -35884,10 +35884,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>164.8731386795329</v>
       </c>
       <c r="L17" t="n">
-        <v>227.2682583444107</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>337.7609789072544</v>
@@ -35902,7 +35902,7 @@
         <v>186.8999931361872</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>62.39511966487775</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>187.3208941729504</v>
       </c>
       <c r="L18" t="n">
-        <v>69.50579985079729</v>
+        <v>313.3403085074589</v>
       </c>
       <c r="M18" t="n">
         <v>338.9703834416862</v>
@@ -35975,13 +35975,13 @@
         <v>338.9703834416862</v>
       </c>
       <c r="O18" t="n">
-        <v>338.9703834416862</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>255.7688105225382</v>
+        <v>44.69086462923273</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>118.8929265053795</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>13.37822802346507</v>
+        <v>13.37822802346508</v>
       </c>
       <c r="L19" t="n">
-        <v>73.48681392393843</v>
+        <v>73.48681392393846</v>
       </c>
       <c r="M19" t="n">
         <v>88.18144027963226</v>
       </c>
       <c r="N19" t="n">
-        <v>91.27787655816502</v>
+        <v>91.27787655816503</v>
       </c>
       <c r="O19" t="n">
-        <v>68.8183810817479</v>
+        <v>68.81838108174792</v>
       </c>
       <c r="P19" t="n">
-        <v>35.42896184471155</v>
+        <v>35.42896184471156</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.18956525806652</v>
+        <v>21.65186429834176</v>
       </c>
       <c r="K20" t="n">
-        <v>191.2391539654021</v>
+        <v>191.2391539654022</v>
       </c>
       <c r="L20" t="n">
-        <v>289.7430993230433</v>
+        <v>289.7430993230434</v>
       </c>
       <c r="M20" t="n">
-        <v>337.7609789072544</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>228.9578504435626</v>
+        <v>327.5523905305997</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>262.704139779942</v>
       </c>
       <c r="P20" t="n">
         <v>186.8999931361872</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.39511966487773</v>
+        <v>62.39511966487775</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>34.77524718706017</v>
+        <v>34.77524718706019</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>187.3208941729504</v>
       </c>
       <c r="L21" t="n">
-        <v>313.3403085074589</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>316.1294381205026</v>
+        <v>67.48711542709322</v>
       </c>
       <c r="N21" t="n">
         <v>338.9703834416862</v>
@@ -36215,10 +36215,10 @@
         <v>338.9703834416862</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>255.7688105225382</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>118.8929265053795</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>13.37822802346507</v>
+        <v>13.37822802346508</v>
       </c>
       <c r="L22" t="n">
-        <v>73.48681392393843</v>
+        <v>73.48681392393846</v>
       </c>
       <c r="M22" t="n">
         <v>88.18144027963226</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27787655816502</v>
+        <v>91.27787655816503</v>
       </c>
       <c r="O22" t="n">
-        <v>68.8183810817479</v>
+        <v>68.81838108174792</v>
       </c>
       <c r="P22" t="n">
-        <v>35.42896184471155</v>
+        <v>35.42896184471156</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36361,10 +36361,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>289.7430993230433</v>
+        <v>289.7430993230434</v>
       </c>
       <c r="M23" t="n">
-        <v>212.8910182637442</v>
+        <v>212.8910182637437</v>
       </c>
       <c r="N23" t="n">
         <v>327.5523905305997</v>
@@ -36376,7 +36376,7 @@
         <v>186.8999931361872</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.39511966487773</v>
+        <v>62.39511966487775</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>34.77524718706017</v>
+        <v>34.77524718706019</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>187.3208941729504</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>313.3403085074589</v>
       </c>
       <c r="M24" t="n">
-        <v>338.9703834416863</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="N24" t="n">
-        <v>254.8080096000439</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="O24" t="n">
-        <v>338.9703834416863</v>
+        <v>128.808543947552</v>
       </c>
       <c r="P24" t="n">
-        <v>255.7688105225382</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>118.8929265053795</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>13.37822802346507</v>
+        <v>13.37822802346508</v>
       </c>
       <c r="L25" t="n">
-        <v>73.48681392393843</v>
+        <v>73.48681392393846</v>
       </c>
       <c r="M25" t="n">
         <v>88.18144027963226</v>
       </c>
       <c r="N25" t="n">
-        <v>91.27787655816502</v>
+        <v>91.27787655816503</v>
       </c>
       <c r="O25" t="n">
-        <v>68.8183810817479</v>
+        <v>68.81838108174792</v>
       </c>
       <c r="P25" t="n">
-        <v>35.42896184471155</v>
+        <v>35.42896184471156</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>332.6036439782291</v>
       </c>
       <c r="L26" t="n">
-        <v>431.1075893358702</v>
+        <v>431.10758933587</v>
       </c>
       <c r="M26" t="n">
         <v>479.1254689200813</v>
@@ -36610,13 +36610,13 @@
         <v>404.0686297927689</v>
       </c>
       <c r="P26" t="n">
-        <v>328.2644831490141</v>
+        <v>328.2644831490142</v>
       </c>
       <c r="Q26" t="n">
         <v>203.7596096777047</v>
       </c>
       <c r="R26" t="n">
-        <v>33.44703712235622</v>
+        <v>33.44703712235626</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>34.77524718706017</v>
+        <v>34.77524718706019</v>
       </c>
       <c r="K27" t="n">
         <v>187.3208941729504</v>
@@ -36683,7 +36683,7 @@
         <v>418.9868900890576</v>
       </c>
       <c r="N27" t="n">
-        <v>445.6305010862542</v>
+        <v>445.6305010862543</v>
       </c>
       <c r="O27" t="n">
         <v>339.3537175157211</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>13.37822802346507</v>
+        <v>154.742718036292</v>
       </c>
       <c r="L28" t="n">
-        <v>73.48681392393843</v>
+        <v>214.8513039367654</v>
       </c>
       <c r="M28" t="n">
-        <v>190.5782365802688</v>
+        <v>229.5459302924592</v>
       </c>
       <c r="N28" t="n">
-        <v>232.642366570992</v>
+        <v>193.6746728588008</v>
       </c>
       <c r="O28" t="n">
-        <v>210.1828710945748</v>
+        <v>68.81838108174792</v>
       </c>
       <c r="P28" t="n">
-        <v>176.7934518575385</v>
+        <v>35.42896184471156</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.5540552708934</v>
+        <v>186.5540552708935</v>
       </c>
       <c r="K29" t="n">
-        <v>332.603643978229</v>
+        <v>332.6036439782291</v>
       </c>
       <c r="L29" t="n">
         <v>431.1075893358703</v>
@@ -36841,19 +36841,19 @@
         <v>479.1254689200813</v>
       </c>
       <c r="N29" t="n">
-        <v>468.9168805434266</v>
+        <v>468.9168805434267</v>
       </c>
       <c r="O29" t="n">
         <v>404.0686297927689</v>
       </c>
       <c r="P29" t="n">
-        <v>328.2644831490141</v>
+        <v>328.2644831490142</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.7596096777046</v>
+        <v>203.7596096777047</v>
       </c>
       <c r="R29" t="n">
-        <v>33.44703712235619</v>
+        <v>33.44703712235624</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>34.77524718706017</v>
+        <v>34.77524718706019</v>
       </c>
       <c r="K30" t="n">
         <v>187.3208941729504</v>
@@ -36920,7 +36920,7 @@
         <v>418.9868900890576</v>
       </c>
       <c r="N30" t="n">
-        <v>445.6305010862542</v>
+        <v>445.6305010862543</v>
       </c>
       <c r="O30" t="n">
         <v>339.3537175157211</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.65734021134514</v>
+        <v>69.65734021134517</v>
       </c>
       <c r="K31" t="n">
-        <v>13.37822802346507</v>
+        <v>13.37822802346508</v>
       </c>
       <c r="L31" t="n">
-        <v>73.48681392393843</v>
+        <v>214.8513039367654</v>
       </c>
       <c r="M31" t="n">
         <v>88.18144027963226</v>
@@ -37002,13 +37002,13 @@
         <v>232.642366570992</v>
       </c>
       <c r="O31" t="n">
-        <v>210.1828710945748</v>
+        <v>161.0279309252052</v>
       </c>
       <c r="P31" t="n">
-        <v>127.6385116881693</v>
+        <v>35.42896184471156</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.89439625866103</v>
+        <v>81.89439625866106</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,19 +37078,19 @@
         <v>479.1254689200813</v>
       </c>
       <c r="N32" t="n">
-        <v>468.9168805434266</v>
+        <v>468.9168805434267</v>
       </c>
       <c r="O32" t="n">
         <v>404.0686297927689</v>
       </c>
       <c r="P32" t="n">
-        <v>328.2644831490141</v>
+        <v>328.2644831490142</v>
       </c>
       <c r="Q32" t="n">
         <v>203.7596096777047</v>
       </c>
       <c r="R32" t="n">
-        <v>33.44703712235622</v>
+        <v>33.44703712235624</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>34.77524718706017</v>
+        <v>34.77524718706019</v>
       </c>
       <c r="K33" t="n">
         <v>187.3208941729504</v>
@@ -37157,7 +37157,7 @@
         <v>418.9868900890576</v>
       </c>
       <c r="N33" t="n">
-        <v>445.6305010862542</v>
+        <v>445.6305010862543</v>
       </c>
       <c r="O33" t="n">
         <v>339.3537175157211</v>
@@ -37227,10 +37227,10 @@
         <v>69.65734021134517</v>
       </c>
       <c r="K34" t="n">
-        <v>105.5877778669223</v>
+        <v>13.37822802346508</v>
       </c>
       <c r="L34" t="n">
-        <v>73.48681392393843</v>
+        <v>73.48681392393846</v>
       </c>
       <c r="M34" t="n">
         <v>229.5459302924592</v>
@@ -37239,13 +37239,13 @@
         <v>232.642366570992</v>
       </c>
       <c r="O34" t="n">
-        <v>68.8183810817479</v>
+        <v>210.1828710945749</v>
       </c>
       <c r="P34" t="n">
-        <v>35.42896184471155</v>
+        <v>35.42896184471156</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.89439625866106</v>
+        <v>32.73945608929148</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.18956525806652</v>
+        <v>45.18956525806654</v>
       </c>
       <c r="K35" t="n">
-        <v>191.2391539654021</v>
+        <v>191.2391539654022</v>
       </c>
       <c r="L35" t="n">
-        <v>289.7430993230433</v>
+        <v>289.7430993230434</v>
       </c>
       <c r="M35" t="n">
         <v>337.7609789072544</v>
@@ -37324,7 +37324,7 @@
         <v>186.8999931361872</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.39511966487773</v>
+        <v>62.39511966487775</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>313.3403085074589</v>
       </c>
       <c r="M36" t="n">
-        <v>177.4839761324904</v>
+        <v>418.9868900890576</v>
       </c>
       <c r="N36" t="n">
-        <v>430.2167337142141</v>
+        <v>409.1746107679888</v>
       </c>
       <c r="O36" t="n">
-        <v>339.3537175157211</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>255.7688105225382</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>118.8929265053795</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>13.37822802346507</v>
+        <v>13.37822802346508</v>
       </c>
       <c r="L37" t="n">
-        <v>73.48681392393843</v>
+        <v>73.48681392393846</v>
       </c>
       <c r="M37" t="n">
         <v>88.18144027963226</v>
       </c>
       <c r="N37" t="n">
-        <v>91.27787655816502</v>
+        <v>91.27787655816503</v>
       </c>
       <c r="O37" t="n">
-        <v>68.8183810817479</v>
+        <v>68.81838108174792</v>
       </c>
       <c r="P37" t="n">
-        <v>35.42896184471155</v>
+        <v>35.42896184471156</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.18956525806652</v>
+        <v>45.18956525806654</v>
       </c>
       <c r="K38" t="n">
-        <v>191.2391539654021</v>
+        <v>191.2391539654022</v>
       </c>
       <c r="L38" t="n">
-        <v>289.7430993230433</v>
+        <v>289.7430993230434</v>
       </c>
       <c r="M38" t="n">
         <v>337.7609789072544</v>
@@ -37561,7 +37561,7 @@
         <v>186.8999931361872</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.39511966487773</v>
+        <v>62.39511966487775</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>187.3208941729504</v>
       </c>
       <c r="L39" t="n">
         <v>313.3403085074589</v>
@@ -37631,13 +37631,13 @@
         <v>418.9868900890576</v>
       </c>
       <c r="N39" t="n">
-        <v>430.2167337142141</v>
+        <v>430.2167337142142</v>
       </c>
       <c r="O39" t="n">
         <v>339.3537175157211</v>
       </c>
       <c r="P39" t="n">
-        <v>201.5867907389215</v>
+        <v>14.26589656597102</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>13.37822802346507</v>
+        <v>13.37822802346508</v>
       </c>
       <c r="L40" t="n">
-        <v>73.48681392393843</v>
+        <v>73.48681392393846</v>
       </c>
       <c r="M40" t="n">
         <v>88.18144027963226</v>
       </c>
       <c r="N40" t="n">
-        <v>91.27787655816502</v>
+        <v>91.27787655816503</v>
       </c>
       <c r="O40" t="n">
-        <v>68.8183810817479</v>
+        <v>68.81838108174792</v>
       </c>
       <c r="P40" t="n">
-        <v>35.42896184471155</v>
+        <v>35.42896184471156</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.18956525806652</v>
+        <v>45.18956525806654</v>
       </c>
       <c r="K41" t="n">
-        <v>191.2391539654021</v>
+        <v>191.2391539654022</v>
       </c>
       <c r="L41" t="n">
-        <v>305.9670155906494</v>
+        <v>289.7430993230434</v>
       </c>
       <c r="M41" t="n">
         <v>337.7609789072544</v>
@@ -37798,10 +37798,10 @@
         <v>186.8999931361872</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.39511966487773</v>
+        <v>62.39511966487775</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>16.22391626760597</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34.77524718706017</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>187.3208941729504</v>
@@ -37865,19 +37865,19 @@
         <v>313.3403085074589</v>
       </c>
       <c r="M42" t="n">
-        <v>375.2960696149776</v>
+        <v>418.9868900890576</v>
       </c>
       <c r="N42" t="n">
         <v>434.3141003226146</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>339.3537175157211</v>
       </c>
       <c r="P42" t="n">
-        <v>255.7688105225382</v>
+        <v>26.39244622517649</v>
       </c>
       <c r="Q42" t="n">
-        <v>118.8929265053795</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>13.37822802346507</v>
+        <v>13.37822802346508</v>
       </c>
       <c r="L43" t="n">
-        <v>73.48681392393843</v>
+        <v>73.48681392393846</v>
       </c>
       <c r="M43" t="n">
         <v>88.18144027963226</v>
       </c>
       <c r="N43" t="n">
-        <v>91.27787655816502</v>
+        <v>91.27787655816503</v>
       </c>
       <c r="O43" t="n">
-        <v>68.8183810817479</v>
+        <v>68.81838108174792</v>
       </c>
       <c r="P43" t="n">
-        <v>35.42896184471155</v>
+        <v>35.42896184471156</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.18956525806652</v>
+        <v>45.18956525806654</v>
       </c>
       <c r="K44" t="n">
-        <v>191.2391539654021</v>
+        <v>191.2391539654022</v>
       </c>
       <c r="L44" t="n">
-        <v>289.7430993230433</v>
+        <v>289.7430993230434</v>
       </c>
       <c r="M44" t="n">
         <v>337.7609789072544</v>
@@ -38035,10 +38035,10 @@
         <v>186.8999931361872</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.39511966487773</v>
+        <v>62.39511966487775</v>
       </c>
       <c r="R44" t="n">
-        <v>16.2239162676062</v>
+        <v>16.22391626760597</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.77524718706017</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>187.3208941729504</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>304.9575075455754</v>
+        <v>313.3403085074589</v>
       </c>
       <c r="M45" t="n">
         <v>418.9868900890576</v>
@@ -38111,7 +38111,7 @@
         <v>339.3537175157211</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>213.7133403981269</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>13.37822802346507</v>
+        <v>13.37822802346508</v>
       </c>
       <c r="L46" t="n">
-        <v>73.48681392393843</v>
+        <v>73.48681392393846</v>
       </c>
       <c r="M46" t="n">
         <v>88.18144027963226</v>
       </c>
       <c r="N46" t="n">
-        <v>91.27787655816502</v>
+        <v>91.27787655816503</v>
       </c>
       <c r="O46" t="n">
-        <v>68.8183810817479</v>
+        <v>68.81838108174792</v>
       </c>
       <c r="P46" t="n">
-        <v>35.42896184471155</v>
+        <v>35.42896184471156</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
